--- a/Code/Results/Cases/Case_5_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_43/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9955010694031291</v>
+        <v>1.030406119515805</v>
       </c>
       <c r="D2">
-        <v>1.014790431325269</v>
+        <v>1.045680826850434</v>
       </c>
       <c r="E2">
-        <v>1.001530078428118</v>
+        <v>1.041774028476897</v>
       </c>
       <c r="F2">
-        <v>1.003100026960699</v>
+        <v>1.052155075999811</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043139262602073</v>
+        <v>1.054474021894451</v>
       </c>
       <c r="J2">
-        <v>1.01781718045749</v>
+        <v>1.051713923360275</v>
       </c>
       <c r="K2">
-        <v>1.026047486928566</v>
+        <v>1.056538428053452</v>
       </c>
       <c r="L2">
-        <v>1.012968137907748</v>
+        <v>1.052680517315816</v>
       </c>
       <c r="M2">
-        <v>1.014516341777151</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.06293265621465</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004760261869894</v>
+        <v>1.038348646793925</v>
       </c>
       <c r="D3">
-        <v>1.022149071052957</v>
+        <v>1.051886967312825</v>
       </c>
       <c r="E3">
-        <v>1.009684299577772</v>
+        <v>1.048499774576899</v>
       </c>
       <c r="F3">
-        <v>1.012391012290976</v>
+        <v>1.058918410574182</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046677226876763</v>
+        <v>1.05685447895794</v>
       </c>
       <c r="J3">
-        <v>1.025121993204946</v>
+        <v>1.057845809434077</v>
       </c>
       <c r="K3">
-        <v>1.032506181954382</v>
+        <v>1.06189635080846</v>
       </c>
       <c r="L3">
-        <v>1.020194749595977</v>
+        <v>1.058547536812584</v>
       </c>
       <c r="M3">
-        <v>1.022867765206383</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.068849088297344</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010523802504171</v>
+        <v>1.043335328664686</v>
       </c>
       <c r="D4">
-        <v>1.026732079299883</v>
+        <v>1.055785339413502</v>
       </c>
       <c r="E4">
-        <v>1.014761004174897</v>
+        <v>1.052727751074098</v>
       </c>
       <c r="F4">
-        <v>1.018182130744054</v>
+        <v>1.063169747320382</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048863291625479</v>
+        <v>1.058336449268921</v>
       </c>
       <c r="J4">
-        <v>1.029662086221922</v>
+        <v>1.06169191630225</v>
       </c>
       <c r="K4">
-        <v>1.036518231683665</v>
+        <v>1.065254063361772</v>
       </c>
       <c r="L4">
-        <v>1.024684482304139</v>
+        <v>1.062228871392921</v>
       </c>
       <c r="M4">
-        <v>1.028065956487798</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.072561168830462</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012896122455572</v>
+        <v>1.045397272894433</v>
       </c>
       <c r="D5">
-        <v>1.028618936359327</v>
+        <v>1.05739761443271</v>
       </c>
       <c r="E5">
-        <v>1.016850754428105</v>
+        <v>1.054477138083049</v>
       </c>
       <c r="F5">
-        <v>1.020567605449508</v>
+        <v>1.06492872523064</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049759133685489</v>
+        <v>1.058946142220136</v>
       </c>
       <c r="J5">
-        <v>1.03152909626132</v>
+        <v>1.063281268488139</v>
       </c>
       <c r="K5">
-        <v>1.038167544609071</v>
+        <v>1.06664086133243</v>
       </c>
       <c r="L5">
-        <v>1.026530361667523</v>
+        <v>1.063750445773571</v>
       </c>
       <c r="M5">
-        <v>1.030205436324008</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.074095379571494</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013291578173154</v>
+        <v>1.045741519354408</v>
       </c>
       <c r="D6">
-        <v>1.028933490167822</v>
+        <v>1.0576668041854</v>
       </c>
       <c r="E6">
-        <v>1.017199112464673</v>
+        <v>1.054769267870192</v>
       </c>
       <c r="F6">
-        <v>1.020965358358234</v>
+        <v>1.065222451920157</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049908231753738</v>
+        <v>1.059047748457602</v>
       </c>
       <c r="J6">
-        <v>1.031840215276425</v>
+        <v>1.063546555262167</v>
       </c>
       <c r="K6">
-        <v>1.038442353181956</v>
+        <v>1.06687229498287</v>
       </c>
       <c r="L6">
-        <v>1.026837934698352</v>
+        <v>1.064004437379888</v>
       </c>
       <c r="M6">
-        <v>1.030562068634654</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.074351476047474</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01055569588785</v>
+        <v>1.043363013222731</v>
       </c>
       <c r="D7">
-        <v>1.026757444522106</v>
+        <v>1.055806985330617</v>
       </c>
       <c r="E7">
-        <v>1.014789098275774</v>
+        <v>1.052751234636865</v>
       </c>
       <c r="F7">
-        <v>1.018214193910324</v>
+        <v>1.063193359939038</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048875351086821</v>
+        <v>1.058344647575727</v>
       </c>
       <c r="J7">
-        <v>1.029687193181693</v>
+        <v>1.061713259584735</v>
       </c>
       <c r="K7">
-        <v>1.036540413349458</v>
+        <v>1.065272689490849</v>
       </c>
       <c r="L7">
-        <v>1.024709306774876</v>
+        <v>1.062249303274934</v>
       </c>
       <c r="M7">
-        <v>1.028094720207939</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.072581770690661</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9986798844046672</v>
+        <v>1.033123261353233</v>
       </c>
       <c r="D8">
-        <v>1.01731613369127</v>
+        <v>1.04780348230492</v>
       </c>
       <c r="E8">
-        <v>1.004329271757243</v>
+        <v>1.044073738725422</v>
       </c>
       <c r="F8">
-        <v>1.006288060829302</v>
+        <v>1.054467688900598</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044357289912307</v>
+        <v>1.055290992230196</v>
       </c>
       <c r="J8">
-        <v>1.020326449833451</v>
+        <v>1.053812395184147</v>
       </c>
       <c r="K8">
-        <v>1.02826654631575</v>
+        <v>1.058372636437357</v>
       </c>
       <c r="L8">
-        <v>1.015450917919959</v>
+        <v>1.054688049322273</v>
       </c>
       <c r="M8">
-        <v>1.017383524727931</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.064957144360837</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9758083389941532</v>
+        <v>1.013805775448727</v>
       </c>
       <c r="D9">
-        <v>0.9991618222889084</v>
+        <v>1.03272582838449</v>
       </c>
       <c r="E9">
-        <v>0.9841981169485843</v>
+        <v>1.027751255236499</v>
       </c>
       <c r="F9">
-        <v>0.9833877173004076</v>
+        <v>1.03805293783587</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035525650643141</v>
+        <v>1.049431281890944</v>
       </c>
       <c r="J9">
-        <v>1.002245272916798</v>
+        <v>1.038880261638658</v>
       </c>
       <c r="K9">
-        <v>1.012268512995204</v>
+        <v>1.045309363211515</v>
       </c>
       <c r="L9">
-        <v>0.9975528793070387</v>
+        <v>1.040409579730672</v>
       </c>
       <c r="M9">
-        <v>0.9967561927624323</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.050557392514844</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9589193583936498</v>
+        <v>0.9999056134234509</v>
       </c>
       <c r="D10">
-        <v>0.9857891797353185</v>
+        <v>1.021900255807573</v>
       </c>
       <c r="E10">
-        <v>0.9693509389986156</v>
+        <v>1.016047044607424</v>
       </c>
       <c r="F10">
-        <v>0.9665305271495163</v>
+        <v>1.026282278606957</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028920586573443</v>
+        <v>1.045152515950618</v>
       </c>
       <c r="J10">
-        <v>0.9888633123325609</v>
+        <v>1.028122976687672</v>
       </c>
       <c r="K10">
-        <v>1.000419844449391</v>
+        <v>1.035885040985603</v>
       </c>
       <c r="L10">
-        <v>0.9842965356060029</v>
+        <v>1.030132485744599</v>
       </c>
       <c r="M10">
-        <v>0.9815315727971379</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.040192676994935</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.951121968805373</v>
+        <v>0.9936005603905772</v>
       </c>
       <c r="D11">
-        <v>0.9796267712305822</v>
+        <v>1.016997897751229</v>
       </c>
       <c r="E11">
-        <v>0.9625031219000049</v>
+        <v>1.010749926686672</v>
       </c>
       <c r="F11">
-        <v>0.958762192454384</v>
+        <v>1.020955236404388</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025852890029761</v>
+        <v>1.043198195086548</v>
       </c>
       <c r="J11">
-        <v>0.9826796326580538</v>
+        <v>1.023242008313944</v>
       </c>
       <c r="K11">
-        <v>0.9949434031098775</v>
+        <v>1.031606223399115</v>
       </c>
       <c r="L11">
-        <v>0.9781685981342769</v>
+        <v>1.025471923193315</v>
       </c>
       <c r="M11">
-        <v>0.9745060740577702</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.035492499718113</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9481427882558975</v>
+        <v>0.9912112306802284</v>
       </c>
       <c r="D12">
-        <v>0.9772743873153649</v>
+        <v>1.015141574927509</v>
       </c>
       <c r="E12">
-        <v>0.9598880545136036</v>
+        <v>1.008744550404419</v>
       </c>
       <c r="F12">
-        <v>0.9557964539376778</v>
+        <v>1.018938575000087</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024678232287568</v>
+        <v>1.042455696345866</v>
       </c>
       <c r="J12">
-        <v>0.9803163803825001</v>
+        <v>1.02139226140775</v>
       </c>
       <c r="K12">
-        <v>0.9928503211712625</v>
+        <v>1.029984324120108</v>
       </c>
       <c r="L12">
-        <v>0.9758263119499359</v>
+        <v>1.023706114555111</v>
       </c>
       <c r="M12">
-        <v>0.9718225213172887</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.033711719061556</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9487857683857044</v>
+        <v>0.9917259694349465</v>
       </c>
       <c r="D13">
-        <v>0.9777819874045369</v>
+        <v>1.015541417327102</v>
       </c>
       <c r="E13">
-        <v>0.9604523863906168</v>
+        <v>1.009176479693532</v>
       </c>
       <c r="F13">
-        <v>0.9564364242190818</v>
+        <v>1.019372932609168</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024931864993736</v>
+        <v>1.042615738062411</v>
       </c>
       <c r="J13">
-        <v>0.9808264530515698</v>
+        <v>1.021790757717999</v>
       </c>
       <c r="K13">
-        <v>0.9933020856725038</v>
+        <v>1.030333749504903</v>
       </c>
       <c r="L13">
-        <v>0.9763318744096618</v>
+        <v>1.024086508722493</v>
       </c>
       <c r="M13">
-        <v>0.9724016624644219</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.034095336516164</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9508774655032858</v>
+        <v>0.9934040509877177</v>
       </c>
       <c r="D14">
-        <v>0.9794336644327466</v>
+        <v>1.016845194447802</v>
       </c>
       <c r="E14">
-        <v>0.962288473481518</v>
+        <v>1.010584953705797</v>
       </c>
       <c r="F14">
-        <v>0.9585187438823021</v>
+        <v>1.020789334034729</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025756535977172</v>
+        <v>1.043137166314974</v>
       </c>
       <c r="J14">
-        <v>0.9824856905003492</v>
+        <v>1.023089877403526</v>
       </c>
       <c r="K14">
-        <v>0.9947716346361567</v>
+        <v>1.031472838422477</v>
       </c>
       <c r="L14">
-        <v>0.977976383325323</v>
+        <v>1.02532668719647</v>
       </c>
       <c r="M14">
-        <v>0.9742858176216339</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.035346031412818</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.952154908688535</v>
+        <v>0.9944315571431904</v>
       </c>
       <c r="D15">
-        <v>0.9804426670141581</v>
+        <v>1.017643708093502</v>
       </c>
       <c r="E15">
-        <v>0.963409990065473</v>
+        <v>1.011447644783466</v>
       </c>
       <c r="F15">
-        <v>0.9597907723896497</v>
+        <v>1.021656887056204</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026259848817607</v>
+        <v>1.043456196500687</v>
       </c>
       <c r="J15">
-        <v>0.9834989453647357</v>
+        <v>1.023885335427644</v>
       </c>
       <c r="K15">
-        <v>0.9956690382728994</v>
+        <v>1.032170264293954</v>
       </c>
       <c r="L15">
-        <v>0.9789806000339595</v>
+        <v>1.026086110163522</v>
       </c>
       <c r="M15">
-        <v>0.9754366093761869</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.036111899620728</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9594258227003377</v>
+        <v>1.000317671092863</v>
       </c>
       <c r="D16">
-        <v>0.9861897139248506</v>
+        <v>1.022220828450814</v>
       </c>
       <c r="E16">
-        <v>0.9697958885923139</v>
+        <v>1.016393492353579</v>
       </c>
       <c r="F16">
-        <v>0.9670354135954449</v>
+        <v>1.026630688299125</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029119482166776</v>
+        <v>1.045279969226986</v>
       </c>
       <c r="J16">
-        <v>0.9892648646901092</v>
+        <v>1.028441945980564</v>
       </c>
       <c r="K16">
-        <v>1.000775450143133</v>
+        <v>1.036164608981683</v>
       </c>
       <c r="L16">
-        <v>0.9846944216046479</v>
+        <v>1.030437106360193</v>
       </c>
       <c r="M16">
-        <v>0.9819879865298462</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.04049989093973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9638504677207597</v>
+        <v>1.003930361880621</v>
       </c>
       <c r="D17">
-        <v>0.9896902433501406</v>
+        <v>1.025032365094807</v>
       </c>
       <c r="E17">
-        <v>0.9736839170066585</v>
+        <v>1.019432311218462</v>
       </c>
       <c r="F17">
-        <v>0.9714478964469728</v>
+        <v>1.029686735210162</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030855083961145</v>
+        <v>1.046395901643622</v>
       </c>
       <c r="J17">
-        <v>0.9927723759036163</v>
+        <v>1.031238335470656</v>
       </c>
       <c r="K17">
-        <v>1.003881487416987</v>
+        <v>1.038615274477052</v>
       </c>
       <c r="L17">
-        <v>0.9881696511987123</v>
+        <v>1.033107989592774</v>
       </c>
       <c r="M17">
-        <v>0.9859757794538242</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.043193527914058</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9663853345550496</v>
+        <v>1.00601029404318</v>
       </c>
       <c r="D18">
-        <v>0.991696730817061</v>
+        <v>1.026651790243973</v>
       </c>
       <c r="E18">
-        <v>0.975911978846569</v>
+        <v>1.021182946484431</v>
       </c>
       <c r="F18">
-        <v>0.973977116878928</v>
+        <v>1.031447307913629</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03184770094112</v>
+        <v>1.04703710205329</v>
       </c>
       <c r="J18">
-        <v>0.9947813020929074</v>
+        <v>1.032848146969602</v>
       </c>
       <c r="K18">
-        <v>1.005660345436919</v>
+        <v>1.040025808080116</v>
       </c>
       <c r="L18">
-        <v>0.9901598736286283</v>
+        <v>1.034645785005705</v>
       </c>
       <c r="M18">
-        <v>0.9882606845724882</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.044744434074773</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.967242139455178</v>
+        <v>1.006714991112787</v>
       </c>
       <c r="D19">
-        <v>0.9923751063618667</v>
+        <v>1.027200583153215</v>
       </c>
       <c r="E19">
-        <v>0.9766651795423885</v>
+        <v>1.021776255695645</v>
       </c>
       <c r="F19">
-        <v>0.9748322326002061</v>
+        <v>1.032043986568634</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032182919631655</v>
+        <v>1.047254125951772</v>
       </c>
       <c r="J19">
-        <v>0.9954602422506428</v>
+        <v>1.033393533708812</v>
       </c>
       <c r="K19">
-        <v>1.006261508342748</v>
+        <v>1.040503637283787</v>
       </c>
       <c r="L19">
-        <v>0.9908324560485129</v>
+        <v>1.035166812427782</v>
       </c>
       <c r="M19">
-        <v>0.9890330480895928</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.045269904771519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9633805651116906</v>
+        <v>1.003545606570671</v>
       </c>
       <c r="D20">
-        <v>0.989318371756012</v>
+        <v>1.024732854929239</v>
       </c>
       <c r="E20">
-        <v>0.9732709373043199</v>
+        <v>1.019108558319169</v>
       </c>
       <c r="F20">
-        <v>0.9709791467003325</v>
+        <v>1.0293611454083</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030670937388066</v>
+        <v>1.046277185336645</v>
       </c>
       <c r="J20">
-        <v>0.9923999266716012</v>
+        <v>1.030940531923619</v>
       </c>
       <c r="K20">
-        <v>1.003551681614322</v>
+        <v>1.038354315052215</v>
       </c>
       <c r="L20">
-        <v>0.9878006521171387</v>
+        <v>1.032823527315989</v>
       </c>
       <c r="M20">
-        <v>0.9855522376218274</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.042906641084438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9502638924458594</v>
+        <v>0.9929112429957908</v>
       </c>
       <c r="D21">
-        <v>0.9789491045150006</v>
+        <v>1.016462267916571</v>
       </c>
       <c r="E21">
-        <v>0.9617498422337788</v>
+        <v>1.010171265799695</v>
       </c>
       <c r="F21">
-        <v>0.9579078558538051</v>
+        <v>1.020373316361106</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025514698026244</v>
+        <v>1.04298408775392</v>
       </c>
       <c r="J21">
-        <v>0.9819989896015955</v>
+        <v>1.022708361410983</v>
       </c>
       <c r="K21">
-        <v>0.9943405773081399</v>
+        <v>1.031138328290083</v>
       </c>
       <c r="L21">
-        <v>0.9774940118644803</v>
+        <v>1.024962469079666</v>
       </c>
       <c r="M21">
-        <v>0.9737331033351487</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.034978723622205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9415307339876122</v>
+        <v>0.985948402962573</v>
       </c>
       <c r="D22">
-        <v>0.9720578565741715</v>
+        <v>1.011055730119099</v>
       </c>
       <c r="E22">
-        <v>0.9540868883998201</v>
+        <v>1.00433136507435</v>
       </c>
       <c r="F22">
-        <v>0.9492188026695921</v>
+        <v>1.014500660961748</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022066626032283</v>
+        <v>1.040816888443999</v>
       </c>
       <c r="J22">
-        <v>0.9750704066571716</v>
+        <v>1.017317968373872</v>
       </c>
       <c r="K22">
-        <v>0.9882039467193963</v>
+        <v>1.026411306993686</v>
       </c>
       <c r="L22">
-        <v>0.9706262679556764</v>
+        <v>1.019817502355257</v>
       </c>
       <c r="M22">
-        <v>0.9658681411276293</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.029790228120188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9462103849027865</v>
+        <v>0.9896673749832163</v>
       </c>
       <c r="D23">
-        <v>0.9757491960257757</v>
+        <v>1.013942559988529</v>
       </c>
       <c r="E23">
-        <v>0.9581922347459518</v>
+        <v>1.007449374653222</v>
       </c>
       <c r="F23">
-        <v>0.9538734554120694</v>
+        <v>1.017636125894468</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023915606030015</v>
+        <v>1.04197541546985</v>
       </c>
       <c r="J23">
-        <v>0.978783339543262</v>
+        <v>1.020197052052556</v>
       </c>
       <c r="K23">
-        <v>0.9914925164133761</v>
+        <v>1.02893624592216</v>
       </c>
       <c r="L23">
-        <v>0.9743067781858008</v>
+        <v>1.022565261781494</v>
       </c>
       <c r="M23">
-        <v>0.9700820989194648</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.032561206297135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9635930351397292</v>
+        <v>1.003719544943304</v>
       </c>
       <c r="D24">
-        <v>0.9894865130942828</v>
+        <v>1.024868253792471</v>
       </c>
       <c r="E24">
-        <v>0.9734576672936524</v>
+        <v>1.019254915612128</v>
       </c>
       <c r="F24">
-        <v>0.9711910913519931</v>
+        <v>1.029508333062923</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030754205976674</v>
+        <v>1.046330858016828</v>
       </c>
       <c r="J24">
-        <v>0.9925683340400714</v>
+        <v>1.031075162034931</v>
       </c>
       <c r="K24">
-        <v>1.003700807638562</v>
+        <v>1.038472289576662</v>
       </c>
       <c r="L24">
-        <v>0.9879675001273297</v>
+        <v>1.032952125419786</v>
       </c>
       <c r="M24">
-        <v>0.9857437443221693</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.043036335236793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9819826932809719</v>
+        <v>1.018966585294331</v>
       </c>
       <c r="D25">
-        <v>1.004058223174497</v>
+        <v>1.036750615649222</v>
       </c>
       <c r="E25">
-        <v>0.9896303364729225</v>
+        <v>1.032105621433919</v>
       </c>
       <c r="F25">
-        <v>0.9895614418058017</v>
+        <v>1.042432031379494</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037924283900811</v>
+        <v>1.051007726020582</v>
       </c>
       <c r="J25">
-        <v>1.007132006706476</v>
+        <v>1.042872083826578</v>
       </c>
       <c r="K25">
-        <v>1.016593865425747</v>
+        <v>1.048804007784113</v>
       </c>
       <c r="L25">
-        <v>1.002391789698019</v>
+        <v>1.04422517488476</v>
       </c>
       <c r="M25">
-        <v>1.002323993546051</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.054405511916884</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_43/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030406119515805</v>
+        <v>0.9889437508818395</v>
       </c>
       <c r="D2">
-        <v>1.045680826850434</v>
+        <v>1.009922342023865</v>
       </c>
       <c r="E2">
-        <v>1.041774028476897</v>
+        <v>0.9969058469729755</v>
       </c>
       <c r="F2">
-        <v>1.052155075999811</v>
+        <v>0.9981880596026975</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054474021894451</v>
+        <v>1.041438006221646</v>
       </c>
       <c r="J2">
-        <v>1.051713923360275</v>
+        <v>1.011460257354392</v>
       </c>
       <c r="K2">
-        <v>1.056538428053452</v>
+        <v>1.021245152199638</v>
       </c>
       <c r="L2">
-        <v>1.052680517315816</v>
+        <v>1.008408457241264</v>
       </c>
       <c r="M2">
-        <v>1.06293265621465</v>
+        <v>1.009672695486024</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038348646793925</v>
+        <v>0.9938498338838596</v>
       </c>
       <c r="D3">
-        <v>1.051886967312825</v>
+        <v>1.013609249305252</v>
       </c>
       <c r="E3">
-        <v>1.048499774576899</v>
+        <v>1.000833755427376</v>
       </c>
       <c r="F3">
-        <v>1.058918410574182</v>
+        <v>1.003882096065704</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05685447895794</v>
+        <v>1.042987641901945</v>
       </c>
       <c r="J3">
-        <v>1.057845809434077</v>
+        <v>1.014509574425493</v>
       </c>
       <c r="K3">
-        <v>1.06189635080846</v>
+        <v>1.024070908951395</v>
       </c>
       <c r="L3">
-        <v>1.058547536812584</v>
+        <v>1.011455979301515</v>
       </c>
       <c r="M3">
-        <v>1.068849088297344</v>
+        <v>1.014465544566522</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043335328664686</v>
+        <v>0.9969520679279317</v>
       </c>
       <c r="D4">
-        <v>1.055785339413502</v>
+        <v>1.015940465788946</v>
       </c>
       <c r="E4">
-        <v>1.052727751074098</v>
+        <v>1.00332381433748</v>
       </c>
       <c r="F4">
-        <v>1.063169747320382</v>
+        <v>1.007482026542821</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058336449268921</v>
+        <v>1.043952215906624</v>
       </c>
       <c r="J4">
-        <v>1.06169191630225</v>
+        <v>1.016434062776143</v>
       </c>
       <c r="K4">
-        <v>1.065254063361772</v>
+        <v>1.025850236148335</v>
       </c>
       <c r="L4">
-        <v>1.062228871392921</v>
+        <v>1.013382288699314</v>
       </c>
       <c r="M4">
-        <v>1.072561168830462</v>
+        <v>1.01749098110259</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045397272894433</v>
+        <v>0.9982396146979901</v>
       </c>
       <c r="D5">
-        <v>1.05739761443271</v>
+        <v>1.016907920247229</v>
       </c>
       <c r="E5">
-        <v>1.054477138083049</v>
+        <v>1.0043587567581</v>
       </c>
       <c r="F5">
-        <v>1.06492872523064</v>
+        <v>1.008976050319079</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058946142220136</v>
+        <v>1.044348829080335</v>
       </c>
       <c r="J5">
-        <v>1.063281268488139</v>
+        <v>1.017231883966748</v>
       </c>
       <c r="K5">
-        <v>1.06664086133243</v>
+        <v>1.026586882109729</v>
       </c>
       <c r="L5">
-        <v>1.063750445773571</v>
+        <v>1.014181571136059</v>
       </c>
       <c r="M5">
-        <v>1.074095379571494</v>
+        <v>1.018745422336212</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045741519354408</v>
+        <v>0.998454843270367</v>
       </c>
       <c r="D6">
-        <v>1.0576668041854</v>
+        <v>1.017069634458367</v>
       </c>
       <c r="E6">
-        <v>1.054769267870192</v>
+        <v>1.004531844640047</v>
       </c>
       <c r="F6">
-        <v>1.065222451920157</v>
+        <v>1.009225790125849</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059047748457602</v>
+        <v>1.044414907298498</v>
       </c>
       <c r="J6">
-        <v>1.063546555262167</v>
+        <v>1.01736519429897</v>
       </c>
       <c r="K6">
-        <v>1.06687229498287</v>
+        <v>1.02670991126832</v>
       </c>
       <c r="L6">
-        <v>1.064004437379888</v>
+        <v>1.014315167103903</v>
       </c>
       <c r="M6">
-        <v>1.074351476047474</v>
+        <v>1.018955044932264</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043363013222731</v>
+        <v>0.9969693366691097</v>
       </c>
       <c r="D7">
-        <v>1.055806985330617</v>
+        <v>1.015953441852891</v>
       </c>
       <c r="E7">
-        <v>1.052751234636865</v>
+        <v>1.00333768936519</v>
       </c>
       <c r="F7">
-        <v>1.063193359939038</v>
+        <v>1.007502064863762</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058344647575727</v>
+        <v>1.043957550112414</v>
       </c>
       <c r="J7">
-        <v>1.061713259584735</v>
+        <v>1.016444766920982</v>
       </c>
       <c r="K7">
-        <v>1.065272689490849</v>
+        <v>1.025860123491371</v>
       </c>
       <c r="L7">
-        <v>1.062249303274934</v>
+        <v>1.013393009659181</v>
       </c>
       <c r="M7">
-        <v>1.072581770690661</v>
+        <v>1.017507810676889</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033123261353233</v>
+        <v>0.9906171852858732</v>
       </c>
       <c r="D8">
-        <v>1.04780348230492</v>
+        <v>1.011179904089084</v>
       </c>
       <c r="E8">
-        <v>1.044073738725422</v>
+        <v>0.9982442665850456</v>
       </c>
       <c r="F8">
-        <v>1.054467688900598</v>
+        <v>1.000130402906987</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055290992230196</v>
+        <v>1.041969758721726</v>
       </c>
       <c r="J8">
-        <v>1.053812395184147</v>
+        <v>1.012501108810838</v>
       </c>
       <c r="K8">
-        <v>1.058372636437357</v>
+        <v>1.022210536422528</v>
       </c>
       <c r="L8">
-        <v>1.054688049322273</v>
+        <v>1.009448073036295</v>
       </c>
       <c r="M8">
-        <v>1.064957144360837</v>
+        <v>1.011308608091849</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013805775448727</v>
+        <v>0.9788370411315394</v>
       </c>
       <c r="D9">
-        <v>1.03272582838449</v>
+        <v>1.002329680567766</v>
       </c>
       <c r="E9">
-        <v>1.027751255236499</v>
+        <v>0.9888517833761186</v>
       </c>
       <c r="F9">
-        <v>1.03805293783587</v>
+        <v>0.9864529334601887</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049431281890944</v>
+        <v>1.03816340253987</v>
       </c>
       <c r="J9">
-        <v>1.038880261638658</v>
+        <v>1.005159907429086</v>
       </c>
       <c r="K9">
-        <v>1.045309363211515</v>
+        <v>1.015385073073773</v>
       </c>
       <c r="L9">
-        <v>1.040409579730672</v>
+        <v>1.002128359806191</v>
       </c>
       <c r="M9">
-        <v>1.050557392514844</v>
+        <v>0.9997696940179063</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9999056134234509</v>
+        <v>0.9705394215642135</v>
       </c>
       <c r="D10">
-        <v>1.021900255807573</v>
+        <v>0.9961021638919472</v>
       </c>
       <c r="E10">
-        <v>1.016047044607424</v>
+        <v>0.9822760129154894</v>
       </c>
       <c r="F10">
-        <v>1.026282278606957</v>
+        <v>0.9768108621299719</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045152515950618</v>
+        <v>1.035404344573163</v>
       </c>
       <c r="J10">
-        <v>1.028122976687672</v>
+        <v>0.999972705861872</v>
       </c>
       <c r="K10">
-        <v>1.035885040985603</v>
+        <v>1.010542153421009</v>
       </c>
       <c r="L10">
-        <v>1.030132485744599</v>
+        <v>0.9969728270700777</v>
       </c>
       <c r="M10">
-        <v>1.040192676994935</v>
+        <v>0.9916118180006719</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9936005603905772</v>
+        <v>0.9668288437517379</v>
       </c>
       <c r="D11">
-        <v>1.016997897751229</v>
+        <v>0.9933199435920854</v>
       </c>
       <c r="E11">
-        <v>1.010749926686672</v>
+        <v>0.9793458624923311</v>
       </c>
       <c r="F11">
-        <v>1.020955236404388</v>
+        <v>0.9724962657110554</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043198195086548</v>
+        <v>1.034152815191589</v>
       </c>
       <c r="J11">
-        <v>1.023242008313944</v>
+        <v>0.9976497907995081</v>
       </c>
       <c r="K11">
-        <v>1.031606223399115</v>
+        <v>1.008368945169579</v>
       </c>
       <c r="L11">
-        <v>1.025471923193315</v>
+        <v>0.9946680876819017</v>
       </c>
       <c r="M11">
-        <v>1.035492499718113</v>
+        <v>0.9879561941896091</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9912112306802284</v>
+        <v>0.9654317455350936</v>
       </c>
       <c r="D12">
-        <v>1.015141574927509</v>
+        <v>0.9922728869272985</v>
       </c>
       <c r="E12">
-        <v>1.008744550404419</v>
+        <v>0.9782442632568978</v>
       </c>
       <c r="F12">
-        <v>1.018938575000087</v>
+        <v>0.9708712383142472</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042455696345866</v>
+        <v>1.033678999714853</v>
       </c>
       <c r="J12">
-        <v>1.02139226140775</v>
+        <v>0.9967747330677803</v>
       </c>
       <c r="K12">
-        <v>1.029984324120108</v>
+        <v>1.007549638794915</v>
       </c>
       <c r="L12">
-        <v>1.023706114555111</v>
+        <v>0.9938004849698778</v>
       </c>
       <c r="M12">
-        <v>1.033711719061556</v>
+        <v>0.9865786175792174</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9917259694349465</v>
+        <v>0.9657322992053101</v>
       </c>
       <c r="D13">
-        <v>1.015541417327102</v>
+        <v>0.9924981129536283</v>
       </c>
       <c r="E13">
-        <v>1.009176479693532</v>
+        <v>0.9784811709388981</v>
       </c>
       <c r="F13">
-        <v>1.019372932609168</v>
+        <v>0.9712208500110076</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042615738062411</v>
+        <v>1.033781046210671</v>
       </c>
       <c r="J13">
-        <v>1.021790757717999</v>
+        <v>0.996963000650341</v>
       </c>
       <c r="K13">
-        <v>1.030333749504903</v>
+        <v>1.007725940191818</v>
       </c>
       <c r="L13">
-        <v>1.024086508722493</v>
+        <v>0.9939871210082643</v>
       </c>
       <c r="M13">
-        <v>1.034095336516164</v>
+        <v>0.9868750250950732</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9934040509877177</v>
+        <v>0.9667137501772967</v>
       </c>
       <c r="D14">
-        <v>1.016845194447802</v>
+        <v>0.993233675859709</v>
       </c>
       <c r="E14">
-        <v>1.010584953705797</v>
+        <v>0.9792550781401719</v>
       </c>
       <c r="F14">
-        <v>1.020789334034729</v>
+        <v>0.9723624060161622</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043137166314974</v>
+        <v>1.034113834312597</v>
       </c>
       <c r="J14">
-        <v>1.023089877403526</v>
+        <v>0.997577711760578</v>
       </c>
       <c r="K14">
-        <v>1.031472838422477</v>
+        <v>1.008301471328006</v>
       </c>
       <c r="L14">
-        <v>1.02532668719647</v>
+        <v>0.9945966103165642</v>
       </c>
       <c r="M14">
-        <v>1.035346031412818</v>
+        <v>0.9878427328011444</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9944315571431904</v>
+        <v>0.9673159240916738</v>
       </c>
       <c r="D15">
-        <v>1.017643708093502</v>
+        <v>0.9936850528113035</v>
       </c>
       <c r="E15">
-        <v>1.011447644783466</v>
+        <v>0.9797301331883929</v>
       </c>
       <c r="F15">
-        <v>1.021656887056204</v>
+        <v>0.9730627438642666</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043456196500687</v>
+        <v>1.034317678567651</v>
       </c>
       <c r="J15">
-        <v>1.023885335427644</v>
+        <v>0.997954814440553</v>
       </c>
       <c r="K15">
-        <v>1.032170264293954</v>
+        <v>1.008654454494853</v>
       </c>
       <c r="L15">
-        <v>1.026086110163522</v>
+        <v>0.9949705899785365</v>
       </c>
       <c r="M15">
-        <v>1.036111899620728</v>
+        <v>0.9884363191893279</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000317671092863</v>
+        <v>0.9707831057525355</v>
       </c>
       <c r="D16">
-        <v>1.022220828450814</v>
+        <v>0.9962849435407856</v>
       </c>
       <c r="E16">
-        <v>1.016393492353579</v>
+        <v>0.9824686684654333</v>
       </c>
       <c r="F16">
-        <v>1.026630688299125</v>
+        <v>0.977094148746746</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045279969226986</v>
+        <v>1.035486173348138</v>
       </c>
       <c r="J16">
-        <v>1.028441945980564</v>
+        <v>1.000125194605379</v>
       </c>
       <c r="K16">
-        <v>1.036164608981683</v>
+        <v>1.010684723971875</v>
       </c>
       <c r="L16">
-        <v>1.030437106360193</v>
+        <v>0.9971242063475134</v>
       </c>
       <c r="M16">
-        <v>1.04049989093973</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9918517334117626</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003930361880621</v>
+        <v>0.9729256973438888</v>
       </c>
       <c r="D17">
-        <v>1.025032365094807</v>
+        <v>0.9978923436843826</v>
       </c>
       <c r="E17">
-        <v>1.019432311218462</v>
+        <v>0.9841637867061045</v>
       </c>
       <c r="F17">
-        <v>1.029686735210162</v>
+        <v>0.9795846171603774</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046395901643622</v>
+        <v>1.036203648252618</v>
       </c>
       <c r="J17">
-        <v>1.031238335470656</v>
+        <v>1.001465585366487</v>
       </c>
       <c r="K17">
-        <v>1.038615274477052</v>
+        <v>1.011937428946839</v>
       </c>
       <c r="L17">
-        <v>1.033107989592774</v>
+        <v>0.9984552989404619</v>
       </c>
       <c r="M17">
-        <v>1.043193527914058</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9939603280531147</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00601029404318</v>
+        <v>0.9741641654287684</v>
       </c>
       <c r="D18">
-        <v>1.026651790243973</v>
+        <v>0.9988217011406467</v>
       </c>
       <c r="E18">
-        <v>1.021182946484431</v>
+        <v>0.9851445869838605</v>
       </c>
       <c r="F18">
-        <v>1.031447307913629</v>
+        <v>0.9810239072882296</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04703710205329</v>
+        <v>1.036616683994894</v>
       </c>
       <c r="J18">
-        <v>1.032848146969602</v>
+        <v>1.002240049346495</v>
       </c>
       <c r="K18">
-        <v>1.040025808080116</v>
+        <v>1.012660804601248</v>
       </c>
       <c r="L18">
-        <v>1.034645785005705</v>
+        <v>0.9992247676427473</v>
       </c>
       <c r="M18">
-        <v>1.044744434074773</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9951784344207902</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006714991112787</v>
+        <v>0.9745845728637359</v>
       </c>
       <c r="D19">
-        <v>1.027200583153215</v>
+        <v>0.9991372168111402</v>
       </c>
       <c r="E19">
-        <v>1.021776255695645</v>
+        <v>0.9854776912766778</v>
       </c>
       <c r="F19">
-        <v>1.032043986568634</v>
+        <v>0.9815124437762913</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047254125951772</v>
+        <v>1.036756604877269</v>
       </c>
       <c r="J19">
-        <v>1.033393533708812</v>
+        <v>1.002502892396923</v>
       </c>
       <c r="K19">
-        <v>1.040503637283787</v>
+        <v>1.012906236159959</v>
       </c>
       <c r="L19">
-        <v>1.035166812427782</v>
+        <v>0.9994859791025754</v>
       </c>
       <c r="M19">
-        <v>1.045269904771519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9955918103969024</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003545606570671</v>
+        <v>0.9726969911727297</v>
       </c>
       <c r="D20">
-        <v>1.024732854929239</v>
+        <v>0.9977207394489046</v>
       </c>
       <c r="E20">
-        <v>1.019108558319169</v>
+        <v>0.983982742535861</v>
       </c>
       <c r="F20">
-        <v>1.0293611454083</v>
+        <v>0.9793188051027509</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046277185336645</v>
+        <v>1.036127237045547</v>
       </c>
       <c r="J20">
-        <v>1.030940531923619</v>
+        <v>1.001322540487679</v>
       </c>
       <c r="K20">
-        <v>1.038354315052215</v>
+        <v>1.011803785656041</v>
       </c>
       <c r="L20">
-        <v>1.032823527315989</v>
+        <v>0.9983132071477008</v>
       </c>
       <c r="M20">
-        <v>1.042906641084438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9937353248267191</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9929112429957908</v>
+        <v>0.9664252666890469</v>
       </c>
       <c r="D21">
-        <v>1.016462267916571</v>
+        <v>0.9930174530917848</v>
       </c>
       <c r="E21">
-        <v>1.010171265799695</v>
+        <v>0.9790275529589776</v>
       </c>
       <c r="F21">
-        <v>1.020373316361106</v>
+        <v>0.9720268765685074</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04298408775392</v>
+        <v>1.034016086749533</v>
       </c>
       <c r="J21">
-        <v>1.022708361410983</v>
+        <v>0.9973970378586752</v>
       </c>
       <c r="K21">
-        <v>1.031138328290083</v>
+        <v>1.008132330573816</v>
       </c>
       <c r="L21">
-        <v>1.024962469079666</v>
+        <v>0.9944174543941017</v>
       </c>
       <c r="M21">
-        <v>1.034978723622205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9875583214418474</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.985948402962573</v>
+        <v>0.9623724299582275</v>
       </c>
       <c r="D22">
-        <v>1.011055730119099</v>
+        <v>0.9899811156041364</v>
       </c>
       <c r="E22">
-        <v>1.00433136507435</v>
+        <v>0.9758351646297181</v>
       </c>
       <c r="F22">
-        <v>1.014500660961748</v>
+        <v>0.9673117798394252</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040816888443999</v>
+        <v>1.032636763767292</v>
       </c>
       <c r="J22">
-        <v>1.017317968373872</v>
+        <v>0.9948578153186868</v>
       </c>
       <c r="K22">
-        <v>1.026411306993686</v>
+        <v>1.005753696054889</v>
       </c>
       <c r="L22">
-        <v>1.019817502355257</v>
+        <v>0.9919010275026038</v>
       </c>
       <c r="M22">
-        <v>1.029790228120188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9835598521017127</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9896673749832163</v>
+        <v>0.964531709618738</v>
       </c>
       <c r="D23">
-        <v>1.013942559988529</v>
+        <v>0.9915985079113818</v>
       </c>
       <c r="E23">
-        <v>1.007449374653222</v>
+        <v>0.9775350704989766</v>
       </c>
       <c r="F23">
-        <v>1.017636125894468</v>
+        <v>0.9698242124788837</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04197541546985</v>
+        <v>1.033373037561193</v>
       </c>
       <c r="J23">
-        <v>1.020197052052556</v>
+        <v>0.9962108881214936</v>
       </c>
       <c r="K23">
-        <v>1.02893624592216</v>
+        <v>1.007021539257793</v>
       </c>
       <c r="L23">
-        <v>1.022565261781494</v>
+        <v>0.9932416161558448</v>
       </c>
       <c r="M23">
-        <v>1.032561206297135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9856908231860242</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003719544943304</v>
+        <v>0.9728003683880547</v>
       </c>
       <c r="D24">
-        <v>1.024868253792471</v>
+        <v>0.9977983053387303</v>
       </c>
       <c r="E24">
-        <v>1.019254915612128</v>
+        <v>0.9840645730639213</v>
       </c>
       <c r="F24">
-        <v>1.029508333062923</v>
+        <v>0.9794389553042738</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046330858016828</v>
+        <v>1.036161780809537</v>
       </c>
       <c r="J24">
-        <v>1.031075162034931</v>
+        <v>1.001387199015717</v>
       </c>
       <c r="K24">
-        <v>1.038472289576662</v>
+        <v>1.011864195837627</v>
       </c>
       <c r="L24">
-        <v>1.032952125419786</v>
+        <v>0.9983774336964762</v>
       </c>
       <c r="M24">
-        <v>1.043036335236793</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9938370304800679</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018966585294331</v>
+        <v>0.9819569097813527</v>
       </c>
       <c r="D25">
-        <v>1.036750615649222</v>
+        <v>1.004672848461243</v>
       </c>
       <c r="E25">
-        <v>1.032105621433919</v>
+        <v>0.9913327142778606</v>
       </c>
       <c r="F25">
-        <v>1.042432031379494</v>
+        <v>0.990076400043274</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051007726020582</v>
+        <v>1.039185120348198</v>
       </c>
       <c r="J25">
-        <v>1.042872083826578</v>
+        <v>1.007107136150856</v>
       </c>
       <c r="K25">
-        <v>1.048804007784113</v>
+        <v>1.017199054997582</v>
       </c>
       <c r="L25">
-        <v>1.04422517488476</v>
+        <v>1.004067085472477</v>
       </c>
       <c r="M25">
-        <v>1.054405511916884</v>
+        <v>1.002830745592048</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_43/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9889437508818395</v>
+        <v>1.021023025749022</v>
       </c>
       <c r="D2">
-        <v>1.009922342023865</v>
+        <v>1.026857640674566</v>
       </c>
       <c r="E2">
-        <v>0.9969058469729755</v>
+        <v>1.021951966342955</v>
       </c>
       <c r="F2">
-        <v>0.9981880596026975</v>
+        <v>1.032116099227337</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041438006221646</v>
+        <v>1.030361160355375</v>
       </c>
       <c r="J2">
-        <v>1.011460257354392</v>
+        <v>1.026216834019222</v>
       </c>
       <c r="K2">
-        <v>1.021245152199638</v>
+        <v>1.029679062523881</v>
       </c>
       <c r="L2">
-        <v>1.008408457241264</v>
+        <v>1.024787780392354</v>
       </c>
       <c r="M2">
-        <v>1.009672695486024</v>
+        <v>1.034922259029289</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9938498338838596</v>
+        <v>1.022035308878848</v>
       </c>
       <c r="D3">
-        <v>1.013609249305252</v>
+        <v>1.027620776174032</v>
       </c>
       <c r="E3">
-        <v>1.000833755427376</v>
+        <v>1.022812020828123</v>
       </c>
       <c r="F3">
-        <v>1.003882096065704</v>
+        <v>1.033349849340407</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042987641901945</v>
+        <v>1.030586067626785</v>
       </c>
       <c r="J3">
-        <v>1.014509574425493</v>
+        <v>1.026866229871619</v>
       </c>
       <c r="K3">
-        <v>1.024070908951395</v>
+        <v>1.030249921204315</v>
       </c>
       <c r="L3">
-        <v>1.011455979301515</v>
+        <v>1.025454251091353</v>
       </c>
       <c r="M3">
-        <v>1.014465544566522</v>
+        <v>1.035963576800368</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9969520679279317</v>
+        <v>1.022690289298438</v>
       </c>
       <c r="D4">
-        <v>1.015940465788946</v>
+        <v>1.028114135043577</v>
       </c>
       <c r="E4">
-        <v>1.00332381433748</v>
+        <v>1.023368899236907</v>
       </c>
       <c r="F4">
-        <v>1.007482026542821</v>
+        <v>1.034148103976442</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043952215906624</v>
+        <v>1.030729709575228</v>
       </c>
       <c r="J4">
-        <v>1.016434062776143</v>
+        <v>1.027285843640974</v>
       </c>
       <c r="K4">
-        <v>1.025850236148335</v>
+        <v>1.030618207240159</v>
       </c>
       <c r="L4">
-        <v>1.013382288699314</v>
+        <v>1.025885232049177</v>
       </c>
       <c r="M4">
-        <v>1.01749098110259</v>
+        <v>1.036636760968425</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9982396146979901</v>
+        <v>1.022965634922377</v>
       </c>
       <c r="D5">
-        <v>1.016907920247229</v>
+        <v>1.028321436907811</v>
       </c>
       <c r="E5">
-        <v>1.0043587567581</v>
+        <v>1.023603097918481</v>
       </c>
       <c r="F5">
-        <v>1.008976050319079</v>
+        <v>1.034483675871122</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044348829080335</v>
+        <v>1.030789644338343</v>
       </c>
       <c r="J5">
-        <v>1.017231883966748</v>
+        <v>1.027462108071867</v>
       </c>
       <c r="K5">
-        <v>1.026586882109729</v>
+        <v>1.030772771469811</v>
       </c>
       <c r="L5">
-        <v>1.014181571136059</v>
+        <v>1.026066351428872</v>
       </c>
       <c r="M5">
-        <v>1.018745422336212</v>
+        <v>1.036919620342932</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.998454843270367</v>
+        <v>1.023011866189614</v>
       </c>
       <c r="D6">
-        <v>1.017069634458367</v>
+        <v>1.028356237555486</v>
       </c>
       <c r="E6">
-        <v>1.004531844640047</v>
+        <v>1.023642425993547</v>
       </c>
       <c r="F6">
-        <v>1.009225790125849</v>
+        <v>1.034540019056433</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044414907298498</v>
+        <v>1.030799681116232</v>
       </c>
       <c r="J6">
-        <v>1.01736519429897</v>
+        <v>1.027491695358308</v>
       </c>
       <c r="K6">
-        <v>1.02670991126832</v>
+        <v>1.030798708036184</v>
       </c>
       <c r="L6">
-        <v>1.014315167103903</v>
+        <v>1.026096758347196</v>
       </c>
       <c r="M6">
-        <v>1.018955044932264</v>
+        <v>1.036967105062466</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9969693366691097</v>
+        <v>1.022693968512018</v>
       </c>
       <c r="D7">
-        <v>1.015953441852891</v>
+        <v>1.028116905439403</v>
       </c>
       <c r="E7">
-        <v>1.00333768936519</v>
+        <v>1.023372028269995</v>
       </c>
       <c r="F7">
-        <v>1.007502064863762</v>
+        <v>1.034152587959674</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043957550112414</v>
+        <v>1.030730512204129</v>
       </c>
       <c r="J7">
-        <v>1.016444766920982</v>
+        <v>1.027288199450057</v>
       </c>
       <c r="K7">
-        <v>1.025860123491371</v>
+        <v>1.030620273569789</v>
       </c>
       <c r="L7">
-        <v>1.013393009659181</v>
+        <v>1.025887652431097</v>
       </c>
       <c r="M7">
-        <v>1.017507810676889</v>
+        <v>1.036640541126946</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9906171852858732</v>
+        <v>1.021365138770246</v>
       </c>
       <c r="D8">
-        <v>1.011179904089084</v>
+        <v>1.027115636766294</v>
       </c>
       <c r="E8">
-        <v>0.9982442665850456</v>
+        <v>1.022242549751743</v>
       </c>
       <c r="F8">
-        <v>1.000130402906987</v>
+        <v>1.032533064755057</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041969758721726</v>
+        <v>1.030437559585888</v>
       </c>
       <c r="J8">
-        <v>1.012501108810838</v>
+        <v>1.026436422151552</v>
       </c>
       <c r="K8">
-        <v>1.022210536422528</v>
+        <v>1.029872213919613</v>
       </c>
       <c r="L8">
-        <v>1.009448073036295</v>
+        <v>1.025013073018771</v>
       </c>
       <c r="M8">
-        <v>1.011308608091849</v>
+        <v>1.035274305651307</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9788370411315394</v>
+        <v>1.019023301711725</v>
       </c>
       <c r="D9">
-        <v>1.002329680567766</v>
+        <v>1.025347926024502</v>
       </c>
       <c r="E9">
-        <v>0.9888517833761186</v>
+        <v>1.020255087863558</v>
       </c>
       <c r="F9">
-        <v>0.9864529334601887</v>
+        <v>1.029678720373751</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03816340253987</v>
+        <v>1.029906891755308</v>
       </c>
       <c r="J9">
-        <v>1.005159907429086</v>
+        <v>1.024930982611179</v>
       </c>
       <c r="K9">
-        <v>1.015385073073773</v>
+        <v>1.028545648330748</v>
       </c>
       <c r="L9">
-        <v>1.002128359806191</v>
+        <v>1.02346989778703</v>
       </c>
       <c r="M9">
-        <v>0.9997696940179063</v>
+        <v>1.032862057811752</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9705394215642135</v>
+        <v>1.017461885053878</v>
       </c>
       <c r="D10">
-        <v>0.9961021638919472</v>
+        <v>1.02416723791518</v>
       </c>
       <c r="E10">
-        <v>0.9822760129154894</v>
+        <v>1.018932040513843</v>
       </c>
       <c r="F10">
-        <v>0.9768108621299719</v>
+        <v>1.02777539502124</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035404344573163</v>
+        <v>1.029543414756537</v>
       </c>
       <c r="J10">
-        <v>0.999972705861872</v>
+        <v>1.023924342570065</v>
       </c>
       <c r="K10">
-        <v>1.010542153421009</v>
+        <v>1.027655653204197</v>
       </c>
       <c r="L10">
-        <v>0.9969728270700777</v>
+        <v>1.022439750198952</v>
       </c>
       <c r="M10">
-        <v>0.9916118180006719</v>
+        <v>1.031250638827235</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9668288437517379</v>
+        <v>1.016785725396323</v>
       </c>
       <c r="D11">
-        <v>0.9933199435920854</v>
+        <v>1.023655468594212</v>
       </c>
       <c r="E11">
-        <v>0.9793458624923311</v>
+        <v>1.018359608842898</v>
       </c>
       <c r="F11">
-        <v>0.9724962657110554</v>
+        <v>1.026951116252102</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034152815191589</v>
+        <v>1.029383727610241</v>
       </c>
       <c r="J11">
-        <v>0.9976497907995081</v>
+        <v>1.023487743101465</v>
       </c>
       <c r="K11">
-        <v>1.008368945169579</v>
+        <v>1.027268946873311</v>
       </c>
       <c r="L11">
-        <v>0.9946680876819017</v>
+        <v>1.021993364302187</v>
       </c>
       <c r="M11">
-        <v>0.9879561941896091</v>
+        <v>1.030552092907545</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9654317455350936</v>
+        <v>1.016534560770622</v>
       </c>
       <c r="D12">
-        <v>0.9922728869272985</v>
+        <v>1.023465296480981</v>
       </c>
       <c r="E12">
-        <v>0.9782442632568978</v>
+        <v>1.018147051172517</v>
       </c>
       <c r="F12">
-        <v>0.9708712383142472</v>
+        <v>1.026644921926504</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033678999714853</v>
+        <v>1.02932406740875</v>
       </c>
       <c r="J12">
-        <v>0.9967747330677803</v>
+        <v>1.023325462826981</v>
       </c>
       <c r="K12">
-        <v>1.007549638794915</v>
+        <v>1.027125106940796</v>
       </c>
       <c r="L12">
-        <v>0.9938004849698778</v>
+        <v>1.021827508000152</v>
       </c>
       <c r="M12">
-        <v>0.9865786175792174</v>
+        <v>1.030292501877016</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9657322992053101</v>
+        <v>1.016588436841444</v>
       </c>
       <c r="D13">
-        <v>0.9924981129536283</v>
+        <v>1.023506092576274</v>
       </c>
       <c r="E13">
-        <v>0.9784811709388981</v>
+        <v>1.018192642389191</v>
       </c>
       <c r="F13">
-        <v>0.9712208500110076</v>
+        <v>1.026710602600262</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033781046210671</v>
+        <v>1.029336880347109</v>
       </c>
       <c r="J13">
-        <v>0.996963000650341</v>
+        <v>1.023360277374097</v>
       </c>
       <c r="K13">
-        <v>1.007725940191818</v>
+        <v>1.027155970140797</v>
       </c>
       <c r="L13">
-        <v>0.9939871210082643</v>
+        <v>1.021863086941554</v>
       </c>
       <c r="M13">
-        <v>0.9868750250950732</v>
+        <v>1.030348190481914</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9667137501772967</v>
+        <v>1.016764964232427</v>
       </c>
       <c r="D14">
-        <v>0.993233675859709</v>
+        <v>1.023639750500649</v>
       </c>
       <c r="E14">
-        <v>0.9792550781401719</v>
+        <v>1.018342037351225</v>
       </c>
       <c r="F14">
-        <v>0.9723624060161622</v>
+        <v>1.026925806560371</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034113834312597</v>
+        <v>1.029378803122271</v>
       </c>
       <c r="J14">
-        <v>0.997577711760578</v>
+        <v>1.023474331162115</v>
       </c>
       <c r="K14">
-        <v>1.008301471328006</v>
+        <v>1.027257061097967</v>
       </c>
       <c r="L14">
-        <v>0.9945966103165642</v>
+        <v>1.021979655561222</v>
       </c>
       <c r="M14">
-        <v>0.9878427328011444</v>
+        <v>1.0305306374861</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9673159240916738</v>
+        <v>1.016873727402466</v>
       </c>
       <c r="D15">
-        <v>0.9936850528113035</v>
+        <v>1.02372209121038</v>
       </c>
       <c r="E15">
-        <v>0.9797301331883929</v>
+        <v>1.018434093663435</v>
       </c>
       <c r="F15">
-        <v>0.9730627438642666</v>
+        <v>1.027058398062462</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034317678567651</v>
+        <v>1.029404587378264</v>
       </c>
       <c r="J15">
-        <v>0.997954814440553</v>
+        <v>1.023544589182519</v>
       </c>
       <c r="K15">
-        <v>1.008654454494853</v>
+        <v>1.027319320079858</v>
       </c>
       <c r="L15">
-        <v>0.9949705899785365</v>
+        <v>1.022051470885671</v>
       </c>
       <c r="M15">
-        <v>0.9884363191893279</v>
+        <v>1.030643033174633</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9707831057525355</v>
+        <v>1.017506758329226</v>
       </c>
       <c r="D16">
-        <v>0.9962849435407856</v>
+        <v>1.024201191367889</v>
       </c>
       <c r="E16">
-        <v>0.9824686684654333</v>
+        <v>1.018970040567531</v>
       </c>
       <c r="F16">
-        <v>0.977094148746746</v>
+        <v>1.027830096898063</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035486173348138</v>
+        <v>1.029553964237325</v>
       </c>
       <c r="J16">
-        <v>1.000125194605379</v>
+        <v>1.023953303120903</v>
       </c>
       <c r="K16">
-        <v>1.010684723971875</v>
+        <v>1.027681289573074</v>
       </c>
       <c r="L16">
-        <v>0.9971242063475134</v>
+        <v>1.022469368522424</v>
       </c>
       <c r="M16">
-        <v>0.9918517334117626</v>
+        <v>1.031296982258285</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9729256973438888</v>
+        <v>1.017903826634185</v>
       </c>
       <c r="D17">
-        <v>0.9978923436843826</v>
+        <v>1.024501578390591</v>
       </c>
       <c r="E17">
-        <v>0.9841637867061045</v>
+        <v>1.019306348382218</v>
       </c>
       <c r="F17">
-        <v>0.9795846171603774</v>
+        <v>1.028314128303832</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036203648252618</v>
+        <v>1.029647048935288</v>
       </c>
       <c r="J17">
-        <v>1.001465585366487</v>
+        <v>1.024209486455568</v>
       </c>
       <c r="K17">
-        <v>1.011937428946839</v>
+        <v>1.027907986864687</v>
       </c>
       <c r="L17">
-        <v>0.9984552989404619</v>
+        <v>1.022731417714858</v>
       </c>
       <c r="M17">
-        <v>0.9939603280531147</v>
+        <v>1.031706974691625</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9741641654287684</v>
+        <v>1.018135424489402</v>
       </c>
       <c r="D18">
-        <v>0.9988217011406467</v>
+        <v>1.024676738510691</v>
       </c>
       <c r="E18">
-        <v>0.9851445869838605</v>
+        <v>1.019502555069406</v>
       </c>
       <c r="F18">
-        <v>0.9810239072882296</v>
+        <v>1.028596443546143</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036616683994894</v>
+        <v>1.029701121815175</v>
       </c>
       <c r="J18">
-        <v>1.002240049346495</v>
+        <v>1.024358844612065</v>
       </c>
       <c r="K18">
-        <v>1.012660804601248</v>
+        <v>1.028040086971638</v>
       </c>
       <c r="L18">
-        <v>0.9992247676427473</v>
+        <v>1.022884235188965</v>
       </c>
       <c r="M18">
-        <v>0.9951784344207902</v>
+        <v>1.031946040112206</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9745845728637359</v>
+        <v>1.018214392474965</v>
       </c>
       <c r="D19">
-        <v>0.9991372168111402</v>
+        <v>1.02473645499711</v>
       </c>
       <c r="E19">
-        <v>0.9854776912766778</v>
+        <v>1.01956946393671</v>
       </c>
       <c r="F19">
-        <v>0.9815124437762913</v>
+        <v>1.028692703743671</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036756604877269</v>
+        <v>1.029719521635837</v>
       </c>
       <c r="J19">
-        <v>1.002502892396923</v>
+        <v>1.024409760136888</v>
       </c>
       <c r="K19">
-        <v>1.012906236159959</v>
+        <v>1.028085107876799</v>
       </c>
       <c r="L19">
-        <v>0.9994859791025754</v>
+        <v>1.022936336670112</v>
       </c>
       <c r="M19">
-        <v>0.9955918103969024</v>
+        <v>1.032027542347841</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9726969911727297</v>
+        <v>1.017861225521101</v>
       </c>
       <c r="D20">
-        <v>0.9977207394489046</v>
+        <v>1.024469354930871</v>
       </c>
       <c r="E20">
-        <v>0.983982742535861</v>
+        <v>1.019270261179776</v>
       </c>
       <c r="F20">
-        <v>0.9793188051027509</v>
+        <v>1.02826219757572</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036127237045547</v>
+        <v>1.029637084773963</v>
       </c>
       <c r="J20">
-        <v>1.001322540487679</v>
+        <v>1.024182007570587</v>
       </c>
       <c r="K20">
-        <v>1.011803785656041</v>
+        <v>1.02788367768948</v>
       </c>
       <c r="L20">
-        <v>0.9983132071477008</v>
+        <v>1.022703305561753</v>
       </c>
       <c r="M20">
-        <v>0.9937353248267191</v>
+        <v>1.031662994276506</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9664252666890469</v>
+        <v>1.016712981562543</v>
       </c>
       <c r="D21">
-        <v>0.9930174530917848</v>
+        <v>1.023600393728328</v>
       </c>
       <c r="E21">
-        <v>0.9790275529589776</v>
+        <v>1.01829804235265</v>
       </c>
       <c r="F21">
-        <v>0.9720268765685074</v>
+        <v>1.02686243493571</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034016086749533</v>
+        <v>1.029366467440311</v>
       </c>
       <c r="J21">
-        <v>0.9973970378586752</v>
+        <v>1.02344074813962</v>
       </c>
       <c r="K21">
-        <v>1.008132330573816</v>
+        <v>1.027227297849487</v>
       </c>
       <c r="L21">
-        <v>0.9944174543941017</v>
+        <v>1.021945330351417</v>
       </c>
       <c r="M21">
-        <v>0.9875583214418474</v>
+        <v>1.03047691471189</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9623724299582275</v>
+        <v>1.015990983756229</v>
       </c>
       <c r="D22">
-        <v>0.9899811156041364</v>
+        <v>1.023053591106815</v>
       </c>
       <c r="E22">
-        <v>0.9758351646297181</v>
+        <v>1.017687168820079</v>
       </c>
       <c r="F22">
-        <v>0.9673117798394252</v>
+        <v>1.025982229308188</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032636763767292</v>
+        <v>1.029194321935673</v>
       </c>
       <c r="J22">
-        <v>0.9948578153186868</v>
+        <v>1.022974065274339</v>
       </c>
       <c r="K22">
-        <v>1.005753696054889</v>
+        <v>1.026813448855533</v>
       </c>
       <c r="L22">
-        <v>0.9919010275026038</v>
+        <v>1.021468479534299</v>
       </c>
       <c r="M22">
-        <v>0.9835598521017127</v>
+        <v>1.029730484710149</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.964531709618738</v>
+        <v>1.016373733453141</v>
       </c>
       <c r="D23">
-        <v>0.9915985079113818</v>
+        <v>1.02334350423649</v>
       </c>
       <c r="E23">
-        <v>0.9775350704989766</v>
+        <v>1.018010966500164</v>
       </c>
       <c r="F23">
-        <v>0.9698242124788837</v>
+        <v>1.026448854779622</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033373037561193</v>
+        <v>1.029285768831634</v>
       </c>
       <c r="J23">
-        <v>0.9962108881214936</v>
+        <v>1.023221521795741</v>
       </c>
       <c r="K23">
-        <v>1.007021539257793</v>
+        <v>1.027032947630211</v>
       </c>
       <c r="L23">
-        <v>0.9932416161558448</v>
+        <v>1.021721293829054</v>
       </c>
       <c r="M23">
-        <v>0.9856908231860242</v>
+        <v>1.030126247614299</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9728003683880547</v>
+        <v>1.017880475146721</v>
       </c>
       <c r="D24">
-        <v>0.9977983053387303</v>
+        <v>1.0244839154814</v>
       </c>
       <c r="E24">
-        <v>0.9840645730639213</v>
+        <v>1.019286567297095</v>
       </c>
       <c r="F24">
-        <v>0.9794389553042738</v>
+        <v>1.028285662873288</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036161780809537</v>
+        <v>1.029641587834977</v>
       </c>
       <c r="J24">
-        <v>1.001387199015717</v>
+        <v>1.024194424309744</v>
       </c>
       <c r="K24">
-        <v>1.011864195837627</v>
+        <v>1.027894662356605</v>
       </c>
       <c r="L24">
-        <v>0.9983774336964762</v>
+        <v>1.022716008330556</v>
       </c>
       <c r="M24">
-        <v>0.9938370304800679</v>
+        <v>1.031682867368113</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9819569097813527</v>
+        <v>1.019628755742264</v>
       </c>
       <c r="D25">
-        <v>1.004672848461243</v>
+        <v>1.025805314529045</v>
       </c>
       <c r="E25">
-        <v>0.9913327142778606</v>
+        <v>1.020768556798239</v>
       </c>
       <c r="F25">
-        <v>0.990076400043274</v>
+        <v>1.030416707462433</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039185120348198</v>
+        <v>1.030045792639809</v>
       </c>
       <c r="J25">
-        <v>1.007107136150856</v>
+        <v>1.025320706801653</v>
       </c>
       <c r="K25">
-        <v>1.017199054997582</v>
+        <v>1.028889589147865</v>
       </c>
       <c r="L25">
-        <v>1.004067085472477</v>
+        <v>1.023869087249479</v>
       </c>
       <c r="M25">
-        <v>1.002830745592048</v>
+        <v>1.033486251570873</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_43/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021023025749022</v>
+        <v>0.9889437508818403</v>
       </c>
       <c r="D2">
-        <v>1.026857640674566</v>
+        <v>1.009922342023866</v>
       </c>
       <c r="E2">
-        <v>1.021951966342955</v>
+        <v>0.9969058469729761</v>
       </c>
       <c r="F2">
-        <v>1.032116099227337</v>
+        <v>0.9981880596026982</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030361160355375</v>
+        <v>1.041438006221646</v>
       </c>
       <c r="J2">
-        <v>1.026216834019222</v>
+        <v>1.011460257354393</v>
       </c>
       <c r="K2">
-        <v>1.029679062523881</v>
+        <v>1.021245152199638</v>
       </c>
       <c r="L2">
-        <v>1.024787780392354</v>
+        <v>1.008408457241264</v>
       </c>
       <c r="M2">
-        <v>1.034922259029289</v>
+        <v>1.009672695486024</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022035308878848</v>
+        <v>0.9938498338838593</v>
       </c>
       <c r="D3">
-        <v>1.027620776174032</v>
+        <v>1.013609249305252</v>
       </c>
       <c r="E3">
-        <v>1.022812020828123</v>
+        <v>1.000833755427375</v>
       </c>
       <c r="F3">
-        <v>1.033349849340407</v>
+        <v>1.003882096065704</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030586067626785</v>
+        <v>1.042987641901945</v>
       </c>
       <c r="J3">
-        <v>1.026866229871619</v>
+        <v>1.014509574425493</v>
       </c>
       <c r="K3">
-        <v>1.030249921204315</v>
+        <v>1.024070908951394</v>
       </c>
       <c r="L3">
-        <v>1.025454251091353</v>
+        <v>1.011455979301515</v>
       </c>
       <c r="M3">
-        <v>1.035963576800368</v>
+        <v>1.014465544566522</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022690289298438</v>
+        <v>0.9969520679279316</v>
       </c>
       <c r="D4">
-        <v>1.028114135043577</v>
+        <v>1.015940465788945</v>
       </c>
       <c r="E4">
-        <v>1.023368899236907</v>
+        <v>1.003323814337479</v>
       </c>
       <c r="F4">
-        <v>1.034148103976442</v>
+        <v>1.007482026542821</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030729709575228</v>
+        <v>1.043952215906624</v>
       </c>
       <c r="J4">
-        <v>1.027285843640974</v>
+        <v>1.016434062776142</v>
       </c>
       <c r="K4">
-        <v>1.030618207240159</v>
+        <v>1.025850236148334</v>
       </c>
       <c r="L4">
-        <v>1.025885232049177</v>
+        <v>1.013382288699314</v>
       </c>
       <c r="M4">
-        <v>1.036636760968425</v>
+        <v>1.01749098110259</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022965634922377</v>
+        <v>0.9982396146979901</v>
       </c>
       <c r="D5">
-        <v>1.028321436907811</v>
+        <v>1.016907920247229</v>
       </c>
       <c r="E5">
-        <v>1.023603097918481</v>
+        <v>1.0043587567581</v>
       </c>
       <c r="F5">
-        <v>1.034483675871122</v>
+        <v>1.008976050319079</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030789644338343</v>
+        <v>1.044348829080335</v>
       </c>
       <c r="J5">
-        <v>1.027462108071867</v>
+        <v>1.017231883966748</v>
       </c>
       <c r="K5">
-        <v>1.030772771469811</v>
+        <v>1.026586882109728</v>
       </c>
       <c r="L5">
-        <v>1.026066351428872</v>
+        <v>1.014181571136059</v>
       </c>
       <c r="M5">
-        <v>1.036919620342932</v>
+        <v>1.018745422336212</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023011866189614</v>
+        <v>0.9984548432703673</v>
       </c>
       <c r="D6">
-        <v>1.028356237555486</v>
+        <v>1.017069634458368</v>
       </c>
       <c r="E6">
-        <v>1.023642425993547</v>
+        <v>1.004531844640047</v>
       </c>
       <c r="F6">
-        <v>1.034540019056433</v>
+        <v>1.009225790125849</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030799681116232</v>
+        <v>1.044414907298498</v>
       </c>
       <c r="J6">
-        <v>1.027491695358308</v>
+        <v>1.01736519429897</v>
       </c>
       <c r="K6">
-        <v>1.030798708036184</v>
+        <v>1.02670991126832</v>
       </c>
       <c r="L6">
-        <v>1.026096758347196</v>
+        <v>1.014315167103903</v>
       </c>
       <c r="M6">
-        <v>1.036967105062466</v>
+        <v>1.018955044932264</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022693968512018</v>
+        <v>0.9969693366691096</v>
       </c>
       <c r="D7">
-        <v>1.028116905439403</v>
+        <v>1.015953441852891</v>
       </c>
       <c r="E7">
-        <v>1.023372028269995</v>
+        <v>1.00333768936519</v>
       </c>
       <c r="F7">
-        <v>1.034152587959674</v>
+        <v>1.007502064863762</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030730512204129</v>
+        <v>1.043957550112414</v>
       </c>
       <c r="J7">
-        <v>1.027288199450057</v>
+        <v>1.016444766920982</v>
       </c>
       <c r="K7">
-        <v>1.030620273569789</v>
+        <v>1.025860123491371</v>
       </c>
       <c r="L7">
-        <v>1.025887652431097</v>
+        <v>1.013393009659181</v>
       </c>
       <c r="M7">
-        <v>1.036640541126946</v>
+        <v>1.017507810676889</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021365138770246</v>
+        <v>0.9906171852858752</v>
       </c>
       <c r="D8">
-        <v>1.027115636766294</v>
+        <v>1.011179904089085</v>
       </c>
       <c r="E8">
-        <v>1.022242549751743</v>
+        <v>0.9982442665850471</v>
       </c>
       <c r="F8">
-        <v>1.032533064755057</v>
+        <v>1.000130402906989</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030437559585888</v>
+        <v>1.041969758721726</v>
       </c>
       <c r="J8">
-        <v>1.026436422151552</v>
+        <v>1.01250110881084</v>
       </c>
       <c r="K8">
-        <v>1.029872213919613</v>
+        <v>1.022210536422529</v>
       </c>
       <c r="L8">
-        <v>1.025013073018771</v>
+        <v>1.009448073036296</v>
       </c>
       <c r="M8">
-        <v>1.035274305651307</v>
+        <v>1.011308608091851</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019023301711725</v>
+        <v>0.978837041131539</v>
       </c>
       <c r="D9">
-        <v>1.025347926024502</v>
+        <v>1.002329680567766</v>
       </c>
       <c r="E9">
-        <v>1.020255087863558</v>
+        <v>0.9888517833761179</v>
       </c>
       <c r="F9">
-        <v>1.029678720373751</v>
+        <v>0.9864529334601885</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029906891755308</v>
+        <v>1.03816340253987</v>
       </c>
       <c r="J9">
-        <v>1.024930982611179</v>
+        <v>1.005159907429086</v>
       </c>
       <c r="K9">
-        <v>1.028545648330748</v>
+        <v>1.015385073073773</v>
       </c>
       <c r="L9">
-        <v>1.02346989778703</v>
+        <v>1.002128359806191</v>
       </c>
       <c r="M9">
-        <v>1.032862057811752</v>
+        <v>0.9997696940179063</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017461885053878</v>
+        <v>0.9705394215642148</v>
       </c>
       <c r="D10">
-        <v>1.02416723791518</v>
+        <v>0.9961021638919482</v>
       </c>
       <c r="E10">
-        <v>1.018932040513843</v>
+        <v>0.9822760129154903</v>
       </c>
       <c r="F10">
-        <v>1.02777539502124</v>
+        <v>0.9768108621299726</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029543414756537</v>
+        <v>1.035404344573163</v>
       </c>
       <c r="J10">
-        <v>1.023924342570065</v>
+        <v>0.999972705861873</v>
       </c>
       <c r="K10">
-        <v>1.027655653204197</v>
+        <v>1.01054215342101</v>
       </c>
       <c r="L10">
-        <v>1.022439750198952</v>
+        <v>0.9969728270700785</v>
       </c>
       <c r="M10">
-        <v>1.031250638827235</v>
+        <v>0.9916118180006724</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016785725396323</v>
+        <v>0.9668288437517365</v>
       </c>
       <c r="D11">
-        <v>1.023655468594212</v>
+        <v>0.9933199435920836</v>
       </c>
       <c r="E11">
-        <v>1.018359608842898</v>
+        <v>0.9793458624923297</v>
       </c>
       <c r="F11">
-        <v>1.026951116252102</v>
+        <v>0.972496265711054</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029383727610241</v>
+        <v>1.034152815191588</v>
       </c>
       <c r="J11">
-        <v>1.023487743101465</v>
+        <v>0.9976497907995067</v>
       </c>
       <c r="K11">
-        <v>1.027268946873311</v>
+        <v>1.008368945169577</v>
       </c>
       <c r="L11">
-        <v>1.021993364302187</v>
+        <v>0.9946680876819003</v>
       </c>
       <c r="M11">
-        <v>1.030552092907545</v>
+        <v>0.9879561941896078</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016534560770622</v>
+        <v>0.965431745535093</v>
       </c>
       <c r="D12">
-        <v>1.023465296480981</v>
+        <v>0.9922728869272982</v>
       </c>
       <c r="E12">
-        <v>1.018147051172517</v>
+        <v>0.9782442632568975</v>
       </c>
       <c r="F12">
-        <v>1.026644921926504</v>
+        <v>0.9708712383142469</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02932406740875</v>
+        <v>1.033678999714853</v>
       </c>
       <c r="J12">
-        <v>1.023325462826981</v>
+        <v>0.99677473306778</v>
       </c>
       <c r="K12">
-        <v>1.027125106940796</v>
+        <v>1.007549638794915</v>
       </c>
       <c r="L12">
-        <v>1.021827508000152</v>
+        <v>0.9938004849698775</v>
       </c>
       <c r="M12">
-        <v>1.030292501877016</v>
+        <v>0.9865786175792171</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016588436841444</v>
+        <v>0.9657322992053108</v>
       </c>
       <c r="D13">
-        <v>1.023506092576274</v>
+        <v>0.9924981129536288</v>
       </c>
       <c r="E13">
-        <v>1.018192642389191</v>
+        <v>0.9784811709388984</v>
       </c>
       <c r="F13">
-        <v>1.026710602600262</v>
+        <v>0.9712208500110082</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029336880347109</v>
+        <v>1.033781046210671</v>
       </c>
       <c r="J13">
-        <v>1.023360277374097</v>
+        <v>0.9969630006503417</v>
       </c>
       <c r="K13">
-        <v>1.027155970140797</v>
+        <v>1.007725940191819</v>
       </c>
       <c r="L13">
-        <v>1.021863086941554</v>
+        <v>0.9939871210082647</v>
       </c>
       <c r="M13">
-        <v>1.030348190481914</v>
+        <v>0.9868750250950737</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016764964232427</v>
+        <v>0.966713750177297</v>
       </c>
       <c r="D14">
-        <v>1.023639750500649</v>
+        <v>0.9932336758597093</v>
       </c>
       <c r="E14">
-        <v>1.018342037351225</v>
+        <v>0.9792550781401722</v>
       </c>
       <c r="F14">
-        <v>1.026925806560371</v>
+        <v>0.9723624060161626</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029378803122271</v>
+        <v>1.034113834312597</v>
       </c>
       <c r="J14">
-        <v>1.023474331162115</v>
+        <v>0.9975777117605784</v>
       </c>
       <c r="K14">
-        <v>1.027257061097967</v>
+        <v>1.008301471328006</v>
       </c>
       <c r="L14">
-        <v>1.021979655561222</v>
+        <v>0.9945966103165645</v>
       </c>
       <c r="M14">
-        <v>1.0305306374861</v>
+        <v>0.9878427328011448</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016873727402466</v>
+        <v>0.9673159240916736</v>
       </c>
       <c r="D15">
-        <v>1.02372209121038</v>
+        <v>0.9936850528113036</v>
       </c>
       <c r="E15">
-        <v>1.018434093663435</v>
+        <v>0.9797301331883926</v>
       </c>
       <c r="F15">
-        <v>1.027058398062462</v>
+        <v>0.9730627438642666</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029404587378264</v>
+        <v>1.034317678567651</v>
       </c>
       <c r="J15">
-        <v>1.023544589182519</v>
+        <v>0.9979548144405529</v>
       </c>
       <c r="K15">
-        <v>1.027319320079858</v>
+        <v>1.008654454494853</v>
       </c>
       <c r="L15">
-        <v>1.022051470885671</v>
+        <v>0.9949705899785363</v>
       </c>
       <c r="M15">
-        <v>1.030643033174633</v>
+        <v>0.9884363191893277</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017506758329226</v>
+        <v>0.9707831057525347</v>
       </c>
       <c r="D16">
-        <v>1.024201191367889</v>
+        <v>0.9962849435407851</v>
       </c>
       <c r="E16">
-        <v>1.018970040567531</v>
+        <v>0.9824686684654328</v>
       </c>
       <c r="F16">
-        <v>1.027830096898063</v>
+        <v>0.9770941487467457</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029553964237325</v>
+        <v>1.035486173348137</v>
       </c>
       <c r="J16">
-        <v>1.023953303120903</v>
+        <v>1.000125194605379</v>
       </c>
       <c r="K16">
-        <v>1.027681289573074</v>
+        <v>1.010684723971875</v>
       </c>
       <c r="L16">
-        <v>1.022469368522424</v>
+        <v>0.9971242063475128</v>
       </c>
       <c r="M16">
-        <v>1.031296982258285</v>
+        <v>0.9918517334117621</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017903826634185</v>
+        <v>0.9729256973438889</v>
       </c>
       <c r="D17">
-        <v>1.024501578390591</v>
+        <v>0.9978923436843826</v>
       </c>
       <c r="E17">
-        <v>1.019306348382218</v>
+        <v>0.9841637867061044</v>
       </c>
       <c r="F17">
-        <v>1.028314128303832</v>
+        <v>0.9795846171603773</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029647048935288</v>
+        <v>1.036203648252618</v>
       </c>
       <c r="J17">
-        <v>1.024209486455568</v>
+        <v>1.001465585366487</v>
       </c>
       <c r="K17">
-        <v>1.027907986864687</v>
+        <v>1.011937428946839</v>
       </c>
       <c r="L17">
-        <v>1.022731417714858</v>
+        <v>0.9984552989404618</v>
       </c>
       <c r="M17">
-        <v>1.031706974691625</v>
+        <v>0.9939603280531147</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018135424489402</v>
+        <v>0.9741641654287686</v>
       </c>
       <c r="D18">
-        <v>1.024676738510691</v>
+        <v>0.9988217011406469</v>
       </c>
       <c r="E18">
-        <v>1.019502555069406</v>
+        <v>0.985144586983861</v>
       </c>
       <c r="F18">
-        <v>1.028596443546143</v>
+        <v>0.9810239072882296</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029701121815175</v>
+        <v>1.036616683994894</v>
       </c>
       <c r="J18">
-        <v>1.024358844612065</v>
+        <v>1.002240049346495</v>
       </c>
       <c r="K18">
-        <v>1.028040086971638</v>
+        <v>1.012660804601249</v>
       </c>
       <c r="L18">
-        <v>1.022884235188965</v>
+        <v>0.9992247676427476</v>
       </c>
       <c r="M18">
-        <v>1.031946040112206</v>
+        <v>0.9951784344207903</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018214392474965</v>
+        <v>0.9745845728637357</v>
       </c>
       <c r="D19">
-        <v>1.02473645499711</v>
+        <v>0.9991372168111401</v>
       </c>
       <c r="E19">
-        <v>1.01956946393671</v>
+        <v>0.9854776912766778</v>
       </c>
       <c r="F19">
-        <v>1.028692703743671</v>
+        <v>0.9815124437762903</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029719521635837</v>
+        <v>1.036756604877268</v>
       </c>
       <c r="J19">
-        <v>1.024409760136888</v>
+        <v>1.002502892396923</v>
       </c>
       <c r="K19">
-        <v>1.028085107876799</v>
+        <v>1.012906236159959</v>
       </c>
       <c r="L19">
-        <v>1.022936336670112</v>
+        <v>0.9994859791025753</v>
       </c>
       <c r="M19">
-        <v>1.032027542347841</v>
+        <v>0.9955918103969016</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017861225521101</v>
+        <v>0.9726969911727296</v>
       </c>
       <c r="D20">
-        <v>1.024469354930871</v>
+        <v>0.9977207394489045</v>
       </c>
       <c r="E20">
-        <v>1.019270261179776</v>
+        <v>0.983982742535861</v>
       </c>
       <c r="F20">
-        <v>1.02826219757572</v>
+        <v>0.9793188051027505</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029637084773963</v>
+        <v>1.036127237045547</v>
       </c>
       <c r="J20">
-        <v>1.024182007570587</v>
+        <v>1.001322540487679</v>
       </c>
       <c r="K20">
-        <v>1.02788367768948</v>
+        <v>1.011803785656041</v>
       </c>
       <c r="L20">
-        <v>1.022703305561753</v>
+        <v>0.9983132071477006</v>
       </c>
       <c r="M20">
-        <v>1.031662994276506</v>
+        <v>0.9937353248267188</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016712981562543</v>
+        <v>0.9664252666890473</v>
       </c>
       <c r="D21">
-        <v>1.023600393728328</v>
+        <v>0.9930174530917854</v>
       </c>
       <c r="E21">
-        <v>1.01829804235265</v>
+        <v>0.9790275529589778</v>
       </c>
       <c r="F21">
-        <v>1.02686243493571</v>
+        <v>0.9720268765685081</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029366467440311</v>
+        <v>1.034016086749534</v>
       </c>
       <c r="J21">
-        <v>1.02344074813962</v>
+        <v>0.9973970378586754</v>
       </c>
       <c r="K21">
-        <v>1.027227297849487</v>
+        <v>1.008132330573816</v>
       </c>
       <c r="L21">
-        <v>1.021945330351417</v>
+        <v>0.9944174543941019</v>
       </c>
       <c r="M21">
-        <v>1.03047691471189</v>
+        <v>0.9875583214418479</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015990983756229</v>
+        <v>0.962372429958228</v>
       </c>
       <c r="D22">
-        <v>1.023053591106815</v>
+        <v>0.9899811156041364</v>
       </c>
       <c r="E22">
-        <v>1.017687168820079</v>
+        <v>0.9758351646297185</v>
       </c>
       <c r="F22">
-        <v>1.025982229308188</v>
+        <v>0.9673117798394257</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029194321935673</v>
+        <v>1.032636763767292</v>
       </c>
       <c r="J22">
-        <v>1.022974065274339</v>
+        <v>0.9948578153186872</v>
       </c>
       <c r="K22">
-        <v>1.026813448855533</v>
+        <v>1.005753696054889</v>
       </c>
       <c r="L22">
-        <v>1.021468479534299</v>
+        <v>0.9919010275026041</v>
       </c>
       <c r="M22">
-        <v>1.029730484710149</v>
+        <v>0.983559852101713</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016373733453141</v>
+        <v>0.9645317096187377</v>
       </c>
       <c r="D23">
-        <v>1.02334350423649</v>
+        <v>0.9915985079113816</v>
       </c>
       <c r="E23">
-        <v>1.018010966500164</v>
+        <v>0.9775350704989766</v>
       </c>
       <c r="F23">
-        <v>1.026448854779622</v>
+        <v>0.9698242124788835</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029285768831634</v>
+        <v>1.033373037561193</v>
       </c>
       <c r="J23">
-        <v>1.023221521795741</v>
+        <v>0.9962108881214933</v>
       </c>
       <c r="K23">
-        <v>1.027032947630211</v>
+        <v>1.007021539257792</v>
       </c>
       <c r="L23">
-        <v>1.021721293829054</v>
+        <v>0.9932416161558447</v>
       </c>
       <c r="M23">
-        <v>1.030126247614299</v>
+        <v>0.9856908231860241</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017880475146721</v>
+        <v>0.9728003683880543</v>
       </c>
       <c r="D24">
-        <v>1.0244839154814</v>
+        <v>0.9977983053387302</v>
       </c>
       <c r="E24">
-        <v>1.019286567297095</v>
+        <v>0.9840645730639211</v>
       </c>
       <c r="F24">
-        <v>1.028285662873288</v>
+        <v>0.9794389553042735</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029641587834977</v>
+        <v>1.036161780809537</v>
       </c>
       <c r="J24">
-        <v>1.024194424309744</v>
+        <v>1.001387199015717</v>
       </c>
       <c r="K24">
-        <v>1.027894662356605</v>
+        <v>1.011864195837626</v>
       </c>
       <c r="L24">
-        <v>1.022716008330556</v>
+        <v>0.9983774336964759</v>
       </c>
       <c r="M24">
-        <v>1.031682867368113</v>
+        <v>0.9938370304800676</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019628755742264</v>
+        <v>0.9819569097813536</v>
       </c>
       <c r="D25">
-        <v>1.025805314529045</v>
+        <v>1.004672848461245</v>
       </c>
       <c r="E25">
-        <v>1.020768556798239</v>
+        <v>0.9913327142778616</v>
       </c>
       <c r="F25">
-        <v>1.030416707462433</v>
+        <v>0.9900764000432752</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030045792639809</v>
+        <v>1.039185120348199</v>
       </c>
       <c r="J25">
-        <v>1.025320706801653</v>
+        <v>1.007107136150857</v>
       </c>
       <c r="K25">
-        <v>1.028889589147865</v>
+        <v>1.017199054997583</v>
       </c>
       <c r="L25">
-        <v>1.023869087249479</v>
+        <v>1.004067085472478</v>
       </c>
       <c r="M25">
-        <v>1.033486251570873</v>
+        <v>1.002830745592049</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_43/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9889437508818403</v>
+        <v>1.026201922162476</v>
       </c>
       <c r="D2">
-        <v>1.009922342023866</v>
+        <v>1.041352840051228</v>
       </c>
       <c r="E2">
-        <v>0.9969058469729761</v>
+        <v>1.038105444913971</v>
       </c>
       <c r="F2">
-        <v>0.9981880596026982</v>
+        <v>1.047687174251156</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041438006221646</v>
+        <v>1.052904036344684</v>
       </c>
       <c r="J2">
-        <v>1.011460257354393</v>
+        <v>1.047626217033409</v>
       </c>
       <c r="K2">
-        <v>1.021245152199638</v>
+        <v>1.052264626745047</v>
       </c>
       <c r="L2">
-        <v>1.008408457241264</v>
+        <v>1.049058258683397</v>
       </c>
       <c r="M2">
-        <v>1.009672695486024</v>
+        <v>1.058519845540525</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.05488678231509</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.04802583660137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9938498338838593</v>
+        <v>1.031364207614796</v>
       </c>
       <c r="D3">
-        <v>1.013609249305252</v>
+        <v>1.04482625467438</v>
       </c>
       <c r="E3">
-        <v>1.000833755427375</v>
+        <v>1.042172430239101</v>
       </c>
       <c r="F3">
-        <v>1.003882096065704</v>
+        <v>1.051301093479192</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042987641901945</v>
+        <v>1.054035428143697</v>
       </c>
       <c r="J3">
-        <v>1.014509574425493</v>
+        <v>1.051034895603894</v>
       </c>
       <c r="K3">
-        <v>1.024070908951394</v>
+        <v>1.054915987067727</v>
       </c>
       <c r="L3">
-        <v>1.011455979301515</v>
+        <v>1.052292710089648</v>
       </c>
       <c r="M3">
-        <v>1.014465544566522</v>
+        <v>1.061317093445769</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.057100570208826</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.049897904641062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9969520679279316</v>
+        <v>1.034635296269453</v>
       </c>
       <c r="D4">
-        <v>1.015940465788945</v>
+        <v>1.04703023418616</v>
       </c>
       <c r="E4">
-        <v>1.003323814337479</v>
+        <v>1.044754904988972</v>
       </c>
       <c r="F4">
-        <v>1.007482026542821</v>
+        <v>1.053596949209377</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043952215906624</v>
+        <v>1.054741944567636</v>
       </c>
       <c r="J4">
-        <v>1.016434062776142</v>
+        <v>1.053192687835522</v>
       </c>
       <c r="K4">
-        <v>1.025850236148334</v>
+        <v>1.056592340602416</v>
       </c>
       <c r="L4">
-        <v>1.013382288699314</v>
+        <v>1.054341594408731</v>
       </c>
       <c r="M4">
-        <v>1.01749098110259</v>
+        <v>1.063088836618892</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.058502753513698</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.051084083271217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9982396146979901</v>
+        <v>1.03600102059505</v>
       </c>
       <c r="D5">
-        <v>1.016907920247229</v>
+        <v>1.047953439087432</v>
       </c>
       <c r="E5">
-        <v>1.0043587567581</v>
+        <v>1.045835336584176</v>
       </c>
       <c r="F5">
-        <v>1.008976050319079</v>
+        <v>1.05455771522994</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044348829080335</v>
+        <v>1.055036621918234</v>
       </c>
       <c r="J5">
-        <v>1.017231883966748</v>
+        <v>1.054095109168404</v>
       </c>
       <c r="K5">
-        <v>1.026586882109728</v>
+        <v>1.057294635308341</v>
       </c>
       <c r="L5">
-        <v>1.014181571136059</v>
+        <v>1.055198797396769</v>
       </c>
       <c r="M5">
-        <v>1.018745422336212</v>
+        <v>1.063830190806019</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.059089471235897</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.051587712059356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9984548432703673</v>
+        <v>1.036237333127435</v>
       </c>
       <c r="D6">
-        <v>1.017069634458368</v>
+        <v>1.048116067047055</v>
       </c>
       <c r="E6">
-        <v>1.004531844640047</v>
+        <v>1.046023528201468</v>
       </c>
       <c r="F6">
-        <v>1.009225790125849</v>
+        <v>1.054725082140997</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044414907298498</v>
+        <v>1.055090190809751</v>
       </c>
       <c r="J6">
-        <v>1.01736519429897</v>
+        <v>1.054253732522537</v>
       </c>
       <c r="K6">
-        <v>1.02670991126832</v>
+        <v>1.057420141871412</v>
       </c>
       <c r="L6">
-        <v>1.014315167103903</v>
+        <v>1.055349496265268</v>
       </c>
       <c r="M6">
-        <v>1.018955044932264</v>
+        <v>1.063960705772815</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.059192762498109</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.051685062675334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9969693366691096</v>
+        <v>1.03467504676548</v>
       </c>
       <c r="D7">
-        <v>1.015953441852891</v>
+        <v>1.047064768651162</v>
       </c>
       <c r="E7">
-        <v>1.00333768936519</v>
+        <v>1.044789535154865</v>
       </c>
       <c r="F7">
-        <v>1.007502064863762</v>
+        <v>1.053627736691794</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043957550112414</v>
+        <v>1.054757927838382</v>
       </c>
       <c r="J7">
-        <v>1.016444766920982</v>
+        <v>1.053225728563566</v>
       </c>
       <c r="K7">
-        <v>1.025860123491371</v>
+        <v>1.05662368078766</v>
       </c>
       <c r="L7">
-        <v>1.013393009659181</v>
+        <v>1.054373019106424</v>
       </c>
       <c r="M7">
-        <v>1.017507810676889</v>
+        <v>1.063116498508388</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.058524645514894</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.051126052187653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9906171852858752</v>
+        <v>1.027988724702528</v>
       </c>
       <c r="D8">
-        <v>1.011179904089085</v>
+        <v>1.042564114353338</v>
       </c>
       <c r="E8">
-        <v>0.9982442665850471</v>
+        <v>1.039516194493049</v>
       </c>
       <c r="F8">
-        <v>1.000130402906989</v>
+        <v>1.048940452160955</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041969758721726</v>
+        <v>1.053307178825257</v>
       </c>
       <c r="J8">
-        <v>1.01250110881084</v>
+        <v>1.048815054341842</v>
       </c>
       <c r="K8">
-        <v>1.022210536422529</v>
+        <v>1.053196816326619</v>
       </c>
       <c r="L8">
-        <v>1.009448073036296</v>
+        <v>1.050186231029687</v>
       </c>
       <c r="M8">
-        <v>1.011308608091851</v>
+        <v>1.059495920120468</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.055659264485175</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.048707562595148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.978837041131539</v>
+        <v>1.015610025307821</v>
       </c>
       <c r="D9">
-        <v>1.002329680567766</v>
+        <v>1.034246792864408</v>
       </c>
       <c r="E9">
-        <v>0.9888517833761179</v>
+        <v>1.029794000074317</v>
       </c>
       <c r="F9">
-        <v>0.9864529334601885</v>
+        <v>1.040308161914602</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03816340253987</v>
+        <v>1.050528414107415</v>
       </c>
       <c r="J9">
-        <v>1.005159907429086</v>
+        <v>1.040623344756624</v>
       </c>
       <c r="K9">
-        <v>1.015385073073773</v>
+        <v>1.046807643544612</v>
       </c>
       <c r="L9">
-        <v>1.002128359806191</v>
+        <v>1.04242150182795</v>
       </c>
       <c r="M9">
-        <v>0.9997696940179063</v>
+        <v>1.052779447895587</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.050343717150162</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.044186940805067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9705394215642148</v>
+        <v>1.00706024236604</v>
       </c>
       <c r="D10">
-        <v>0.9961021638919482</v>
+        <v>1.028553474985843</v>
       </c>
       <c r="E10">
-        <v>0.9822760129154903</v>
+        <v>1.023145533833335</v>
       </c>
       <c r="F10">
-        <v>0.9768108621299726</v>
+        <v>1.034441743678882</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035404344573163</v>
+        <v>1.048593059527334</v>
       </c>
       <c r="J10">
-        <v>0.999972705861873</v>
+        <v>1.034996514802986</v>
       </c>
       <c r="K10">
-        <v>1.01054215342101</v>
+        <v>1.04242564033398</v>
       </c>
       <c r="L10">
-        <v>0.9969728270700785</v>
+        <v>1.037109096178308</v>
       </c>
       <c r="M10">
-        <v>0.9916118180006724</v>
+        <v>1.0482157929734</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.046782855172322</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.041105295284361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9668288437517365</v>
+        <v>1.004256376764802</v>
       </c>
       <c r="D11">
-        <v>0.9933199435920836</v>
+        <v>1.026914149841415</v>
       </c>
       <c r="E11">
-        <v>0.9793458624923297</v>
+        <v>1.021227535488382</v>
       </c>
       <c r="F11">
-        <v>0.972496265711054</v>
+        <v>1.032987640928579</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034152815191588</v>
+        <v>1.048223896265597</v>
       </c>
       <c r="J11">
-        <v>0.9976497907995067</v>
+        <v>1.033453151284185</v>
       </c>
       <c r="K11">
-        <v>1.008368945169577</v>
+        <v>1.041345747738762</v>
       </c>
       <c r="L11">
-        <v>0.9946680876819003</v>
+        <v>1.035759935394681</v>
       </c>
       <c r="M11">
-        <v>0.9879561941896078</v>
+        <v>1.047313164978539</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.046500740822118</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.040374374486956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.965431745535093</v>
+        <v>1.003586234701133</v>
       </c>
       <c r="D12">
-        <v>0.9922728869272982</v>
+        <v>1.026636767174046</v>
       </c>
       <c r="E12">
-        <v>0.9782442632568975</v>
+        <v>1.020902194045172</v>
       </c>
       <c r="F12">
-        <v>0.9708712383142469</v>
+        <v>1.032875521654725</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033678999714853</v>
+        <v>1.048277108389974</v>
       </c>
       <c r="J12">
-        <v>0.99677473306778</v>
+        <v>1.033239590321194</v>
       </c>
       <c r="K12">
-        <v>1.007549638794915</v>
+        <v>1.041270843032632</v>
       </c>
       <c r="L12">
-        <v>0.9938004849698775</v>
+        <v>1.035639606028954</v>
       </c>
       <c r="M12">
-        <v>0.9865786175792171</v>
+        <v>1.047398865549208</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.046892194054789</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.040321415152176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9657322992053108</v>
+        <v>1.004547125854739</v>
       </c>
       <c r="D13">
-        <v>0.9924981129536288</v>
+        <v>1.027420208235395</v>
       </c>
       <c r="E13">
-        <v>0.9784811709388984</v>
+        <v>1.021810945746398</v>
       </c>
       <c r="F13">
-        <v>0.9712208500110082</v>
+        <v>1.033821731442572</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033781046210671</v>
+        <v>1.048679843927405</v>
       </c>
       <c r="J13">
-        <v>0.9969630006503417</v>
+        <v>1.034068360109971</v>
       </c>
       <c r="K13">
-        <v>1.007725940191819</v>
+        <v>1.041997946728942</v>
       </c>
       <c r="L13">
-        <v>0.9939871210082647</v>
+        <v>1.036489208850773</v>
       </c>
       <c r="M13">
-        <v>0.9868750250950737</v>
+        <v>1.048286473780587</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.047868571686517</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.040833020388241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.966713750177297</v>
+        <v>1.005958565192452</v>
       </c>
       <c r="D14">
-        <v>0.9932336758597093</v>
+        <v>1.028450109301247</v>
       </c>
       <c r="E14">
-        <v>0.9792550781401722</v>
+        <v>1.023005886059475</v>
       </c>
       <c r="F14">
-        <v>0.9723624060161626</v>
+        <v>1.034963606563395</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034113834312597</v>
+        <v>1.049120083687071</v>
       </c>
       <c r="J14">
-        <v>0.9975777117605784</v>
+        <v>1.035120847783973</v>
       </c>
       <c r="K14">
-        <v>1.008301471328006</v>
+        <v>1.042871020800246</v>
       </c>
       <c r="L14">
-        <v>0.9945966103165645</v>
+        <v>1.037523024073156</v>
       </c>
       <c r="M14">
-        <v>0.9878427328011448</v>
+        <v>1.049271112646338</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.048819044033483</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.041451716827418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9673159240916736</v>
+        <v>1.006666396596154</v>
       </c>
       <c r="D15">
-        <v>0.9936850528113036</v>
+        <v>1.028942206875889</v>
       </c>
       <c r="E15">
-        <v>0.9797301331883926</v>
+        <v>1.023576691947418</v>
       </c>
       <c r="F15">
-        <v>0.9730627438642666</v>
+        <v>1.035486581699147</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034317678567651</v>
+        <v>1.049309233001987</v>
       </c>
       <c r="J15">
-        <v>0.9979548144405529</v>
+        <v>1.035615024056284</v>
       </c>
       <c r="K15">
-        <v>1.008654454494853</v>
+        <v>1.043269189188778</v>
       </c>
       <c r="L15">
-        <v>0.9949705899785363</v>
+        <v>1.037997737053193</v>
       </c>
       <c r="M15">
-        <v>0.9884363191893277</v>
+        <v>1.049700539899789</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.049195761733889</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.04173905184404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9707831057525347</v>
+        <v>1.01011402592386</v>
       </c>
       <c r="D16">
-        <v>0.9962849435407851</v>
+        <v>1.031211586537049</v>
       </c>
       <c r="E16">
-        <v>0.9824686684654328</v>
+        <v>1.026226156078656</v>
       </c>
       <c r="F16">
-        <v>0.9770941487467457</v>
+        <v>1.037814965916158</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035486173348137</v>
+        <v>1.05006882736542</v>
       </c>
       <c r="J16">
-        <v>1.000125194605379</v>
+        <v>1.037856512073503</v>
       </c>
       <c r="K16">
-        <v>1.010684723971875</v>
+        <v>1.045004188621164</v>
       </c>
       <c r="L16">
-        <v>0.9971242063475128</v>
+        <v>1.040102165579672</v>
       </c>
       <c r="M16">
-        <v>0.9918517334117621</v>
+        <v>1.051498677712734</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.050578571862577</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042968869063387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9729256973438889</v>
+        <v>1.012018744012132</v>
       </c>
       <c r="D17">
-        <v>0.9978923436843826</v>
+        <v>1.032413161108376</v>
       </c>
       <c r="E17">
-        <v>0.9841637867061044</v>
+        <v>1.027632752126479</v>
       </c>
       <c r="F17">
-        <v>0.9795846171603773</v>
+        <v>1.038999326230885</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036203648252618</v>
+        <v>1.050418122143135</v>
       </c>
       <c r="J17">
-        <v>1.001465585366487</v>
+        <v>1.039022767700781</v>
       </c>
       <c r="K17">
-        <v>1.011937428946839</v>
+        <v>1.045875775512517</v>
       </c>
       <c r="L17">
-        <v>0.9984552989404618</v>
+        <v>1.041173026028615</v>
       </c>
       <c r="M17">
-        <v>0.9939603280531147</v>
+        <v>1.052356445636364</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.0511285413384</v>
+      </c>
+      <c r="Q17">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R17">
+        <v>1.04358766117631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9741641654287686</v>
+        <v>1.012753207294747</v>
       </c>
       <c r="D18">
-        <v>0.9988217011406469</v>
+        <v>1.032779695405725</v>
       </c>
       <c r="E18">
-        <v>0.985144586983861</v>
+        <v>1.028069413942689</v>
       </c>
       <c r="F18">
-        <v>0.9810239072882296</v>
+        <v>1.039267027680171</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036616683994894</v>
+        <v>1.050431481953475</v>
       </c>
       <c r="J18">
-        <v>1.002240049346495</v>
+        <v>1.039342923301822</v>
       </c>
       <c r="K18">
-        <v>1.012660804601249</v>
+        <v>1.046055620366009</v>
       </c>
       <c r="L18">
-        <v>0.9992247676427476</v>
+        <v>1.041420605692505</v>
       </c>
       <c r="M18">
-        <v>0.9951784344207903</v>
+        <v>1.052440718267029</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.05095957421009</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.043703292188217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9745845728637357</v>
+        <v>1.012480052770658</v>
       </c>
       <c r="D19">
-        <v>0.9991372168111401</v>
+        <v>1.032442241239128</v>
       </c>
       <c r="E19">
-        <v>0.9854776912766778</v>
+        <v>1.027675935697728</v>
       </c>
       <c r="F19">
-        <v>0.9815124437762903</v>
+        <v>1.038746179621991</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036756604877268</v>
+        <v>1.05017282292318</v>
       </c>
       <c r="J19">
-        <v>1.002502892396923</v>
+        <v>1.038947808331527</v>
       </c>
       <c r="K19">
-        <v>1.012906236159959</v>
+        <v>1.045661858080254</v>
       </c>
       <c r="L19">
-        <v>0.9994859791025753</v>
+        <v>1.04097137811824</v>
       </c>
       <c r="M19">
-        <v>0.9955918103969016</v>
+        <v>1.051866875379034</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.050183571289822</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043431229220741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9726969911727296</v>
+        <v>1.009345607988743</v>
       </c>
       <c r="D20">
-        <v>0.9977207394489045</v>
+        <v>1.030095222707202</v>
       </c>
       <c r="E20">
-        <v>0.983982742535861</v>
+        <v>1.024931389296385</v>
       </c>
       <c r="F20">
-        <v>0.9793188051027505</v>
+        <v>1.036018264046846</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036127237045547</v>
+        <v>1.049135482886358</v>
       </c>
       <c r="J20">
-        <v>1.001322540487679</v>
+        <v>1.036520965600975</v>
       </c>
       <c r="K20">
-        <v>1.011803785656041</v>
+        <v>1.043628750507103</v>
       </c>
       <c r="L20">
-        <v>0.9983132071477006</v>
+        <v>1.038549572740288</v>
       </c>
       <c r="M20">
-        <v>0.9937353248267188</v>
+        <v>1.049456022672814</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.047753912057963</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041997668669963</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9664252666890473</v>
+        <v>1.002703906087487</v>
       </c>
       <c r="D21">
-        <v>0.9930174530917854</v>
+        <v>1.025637921332878</v>
       </c>
       <c r="E21">
-        <v>0.9790275529589778</v>
+        <v>1.019731332045549</v>
       </c>
       <c r="F21">
-        <v>0.9720268765685081</v>
+        <v>1.031386277924571</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034016086749534</v>
+        <v>1.047561469253683</v>
       </c>
       <c r="J21">
-        <v>0.9973970378586754</v>
+        <v>1.032089011488822</v>
       </c>
       <c r="K21">
-        <v>1.008132330573816</v>
+        <v>1.040149327366847</v>
       </c>
       <c r="L21">
-        <v>0.9944174543941019</v>
+        <v>1.034348288436894</v>
       </c>
       <c r="M21">
-        <v>0.9875583214418479</v>
+        <v>1.045796464754452</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.044817207749952</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.039540847974623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.962372429958228</v>
+        <v>0.9984570892441983</v>
       </c>
       <c r="D22">
-        <v>0.9899811156041364</v>
+        <v>1.022798920004653</v>
       </c>
       <c r="E22">
-        <v>0.9758351646297185</v>
+        <v>1.016426257002013</v>
       </c>
       <c r="F22">
-        <v>0.9673117798394257</v>
+        <v>1.028459432384822</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032636763767292</v>
+        <v>1.046553001353484</v>
       </c>
       <c r="J22">
-        <v>0.9948578153186872</v>
+        <v>1.029265151783782</v>
       </c>
       <c r="K22">
-        <v>1.005753696054889</v>
+        <v>1.03793186337015</v>
       </c>
       <c r="L22">
-        <v>0.9919010275026041</v>
+        <v>1.031679181941526</v>
       </c>
       <c r="M22">
-        <v>0.983559852101713</v>
+        <v>1.043487426868378</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.042989767653993</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037959609454329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9645317096187377</v>
+        <v>1.000696127037802</v>
       </c>
       <c r="D23">
-        <v>0.9915985079113816</v>
+        <v>1.024287555745816</v>
       </c>
       <c r="E23">
-        <v>0.9775350704989766</v>
+        <v>1.018164125301802</v>
       </c>
       <c r="F23">
-        <v>0.9698242124788835</v>
+        <v>1.029998454117428</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033373037561193</v>
+        <v>1.047078333228557</v>
       </c>
       <c r="J23">
-        <v>0.9962108881214933</v>
+        <v>1.030747363130277</v>
       </c>
       <c r="K23">
-        <v>1.007021539257792</v>
+        <v>1.039090713663695</v>
       </c>
       <c r="L23">
-        <v>0.9932416161558447</v>
+        <v>1.033079451466406</v>
       </c>
       <c r="M23">
-        <v>0.9856908231860241</v>
+        <v>1.044698561706859</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.043948295747599</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038769373478192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9728003683880543</v>
+        <v>1.009326391468812</v>
       </c>
       <c r="D24">
-        <v>0.9977983053387302</v>
+        <v>1.030050781985791</v>
       </c>
       <c r="E24">
-        <v>0.9840645730639211</v>
+        <v>1.024887028997328</v>
       </c>
       <c r="F24">
-        <v>0.9794389553042735</v>
+        <v>1.035955772263588</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036161780809537</v>
+        <v>1.049094953272385</v>
       </c>
       <c r="J24">
-        <v>1.001387199015717</v>
+        <v>1.036470096703282</v>
       </c>
       <c r="K24">
-        <v>1.011864195837626</v>
+        <v>1.043569952894852</v>
       </c>
       <c r="L24">
-        <v>0.9983774336964759</v>
+        <v>1.038490755341195</v>
       </c>
       <c r="M24">
-        <v>0.9938370304800676</v>
+        <v>1.049379575137897</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.047652977053127</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.041928914845862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9819569097813536</v>
+        <v>1.018917618332957</v>
       </c>
       <c r="D25">
-        <v>1.004672848461245</v>
+        <v>1.036477992379848</v>
       </c>
       <c r="E25">
-        <v>0.9913327142778616</v>
+        <v>1.03239172902554</v>
       </c>
       <c r="F25">
-        <v>0.9900764000432752</v>
+        <v>1.042613247189223</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039185120348199</v>
+        <v>1.051292166760508</v>
       </c>
       <c r="J25">
-        <v>1.007107136150857</v>
+        <v>1.042824681105109</v>
       </c>
       <c r="K25">
-        <v>1.017199054997583</v>
+        <v>1.048535246931188</v>
       </c>
       <c r="L25">
-        <v>1.004067085472478</v>
+        <v>1.044507185502082</v>
       </c>
       <c r="M25">
-        <v>1.002830745592049</v>
+        <v>1.054584196939288</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.051772034488366</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.04543672688425</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_43/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026201922162476</v>
+        <v>1.023851598315313</v>
       </c>
       <c r="D2">
-        <v>1.041352840051228</v>
+        <v>1.038770719300475</v>
       </c>
       <c r="E2">
-        <v>1.038105444913971</v>
+        <v>1.036192982024512</v>
       </c>
       <c r="F2">
-        <v>1.047687174251156</v>
+        <v>1.045796140089196</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052904036344684</v>
+        <v>1.051925259281063</v>
       </c>
       <c r="J2">
-        <v>1.047626217033409</v>
+        <v>1.045341586158171</v>
       </c>
       <c r="K2">
-        <v>1.052264626745047</v>
+        <v>1.049715102019468</v>
       </c>
       <c r="L2">
-        <v>1.049058258683397</v>
+        <v>1.047170107829618</v>
       </c>
       <c r="M2">
-        <v>1.058519845540525</v>
+        <v>1.056652305237138</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.05488678231509</v>
+        <v>1.053408776683393</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04802583660137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046231813333293</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024886901838152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031364207614796</v>
+        <v>1.028709587781944</v>
       </c>
       <c r="D3">
-        <v>1.04482625467438</v>
+        <v>1.041914127733695</v>
       </c>
       <c r="E3">
-        <v>1.042172430239101</v>
+        <v>1.039984162443095</v>
       </c>
       <c r="F3">
-        <v>1.051301093479192</v>
+        <v>1.049155168291911</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054035428143697</v>
+        <v>1.052897365168075</v>
       </c>
       <c r="J3">
-        <v>1.051034895603894</v>
+        <v>1.048447063270368</v>
       </c>
       <c r="K3">
-        <v>1.054915987067727</v>
+        <v>1.052037391100731</v>
       </c>
       <c r="L3">
-        <v>1.052292710089648</v>
+        <v>1.050129775799014</v>
       </c>
       <c r="M3">
-        <v>1.061317093445769</v>
+        <v>1.059195480718423</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.057100570208826</v>
+        <v>1.055421491671043</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.049897904641062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04787092626851</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025435231182297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034635296269453</v>
+        <v>1.031791171966809</v>
       </c>
       <c r="D4">
-        <v>1.04703023418616</v>
+        <v>1.043911425462142</v>
       </c>
       <c r="E4">
-        <v>1.044754904988972</v>
+        <v>1.042394759135951</v>
       </c>
       <c r="F4">
-        <v>1.053596949209377</v>
+        <v>1.051291886670661</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054741944567636</v>
+        <v>1.053504177892556</v>
       </c>
       <c r="J4">
-        <v>1.053192687835522</v>
+        <v>1.050415192371232</v>
       </c>
       <c r="K4">
-        <v>1.056592340602416</v>
+        <v>1.053507261362684</v>
       </c>
       <c r="L4">
-        <v>1.054341594408731</v>
+        <v>1.05200708708443</v>
       </c>
       <c r="M4">
-        <v>1.063088836618892</v>
+        <v>1.060808300160384</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.058502753513698</v>
+        <v>1.056697903331667</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.051084083271217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.048911189793341</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025779651831527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03600102059505</v>
+        <v>1.033078381764567</v>
       </c>
       <c r="D5">
-        <v>1.047953439087432</v>
+        <v>1.044748803419787</v>
       </c>
       <c r="E5">
-        <v>1.045835336584176</v>
+        <v>1.043403907518359</v>
       </c>
       <c r="F5">
-        <v>1.05455771522994</v>
+        <v>1.052186629546636</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055036621918234</v>
+        <v>1.053757367632566</v>
       </c>
       <c r="J5">
-        <v>1.054095109168404</v>
+        <v>1.051238858781584</v>
       </c>
       <c r="K5">
-        <v>1.057294635308341</v>
+        <v>1.054123728252753</v>
       </c>
       <c r="L5">
-        <v>1.055198797396769</v>
+        <v>1.052793062815142</v>
       </c>
       <c r="M5">
-        <v>1.063830190806019</v>
+        <v>1.061483656221631</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.059089471235897</v>
+        <v>1.057232390520347</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.051587712059356</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049354848044932</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025924264891317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036237333127435</v>
+        <v>1.033300970378915</v>
       </c>
       <c r="D6">
-        <v>1.048116067047055</v>
+        <v>1.044896494155799</v>
       </c>
       <c r="E6">
-        <v>1.046023528201468</v>
+        <v>1.04357957200685</v>
       </c>
       <c r="F6">
-        <v>1.054725082140997</v>
+        <v>1.052342445409449</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055090190809751</v>
+        <v>1.053803592480572</v>
       </c>
       <c r="J6">
-        <v>1.054253732522537</v>
+        <v>1.051383720682557</v>
       </c>
       <c r="K6">
-        <v>1.057420141871412</v>
+        <v>1.054234298254383</v>
       </c>
       <c r="L6">
-        <v>1.055349496265268</v>
+        <v>1.052931245938351</v>
       </c>
       <c r="M6">
-        <v>1.063960705772815</v>
+        <v>1.061602625664922</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.059192762498109</v>
+        <v>1.057326544731457</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.051685062675334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.049442511701137</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025951142666618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03467504676548</v>
+        <v>1.031828109766113</v>
       </c>
       <c r="D7">
-        <v>1.047064768651162</v>
+        <v>1.043943109054335</v>
       </c>
       <c r="E7">
-        <v>1.044789535154865</v>
+        <v>1.042426651450446</v>
       </c>
       <c r="F7">
-        <v>1.053627736691794</v>
+        <v>1.051320293714312</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054757927838382</v>
+        <v>1.053518437362145</v>
       </c>
       <c r="J7">
-        <v>1.053225728563566</v>
+        <v>1.050445455485587</v>
       </c>
       <c r="K7">
-        <v>1.05662368078766</v>
+        <v>1.053535767675181</v>
       </c>
       <c r="L7">
-        <v>1.054373019106424</v>
+        <v>1.052035793137859</v>
       </c>
       <c r="M7">
-        <v>1.063116498508388</v>
+        <v>1.060833597111626</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.058524645514894</v>
+        <v>1.056717923735238</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.051126052187653</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.048953165813239</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025789000446536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027988724702528</v>
+        <v>1.02553156432155</v>
       </c>
       <c r="D8">
-        <v>1.042564114353338</v>
+        <v>1.039866689945071</v>
       </c>
       <c r="E8">
-        <v>1.039516194493049</v>
+        <v>1.037506673544151</v>
       </c>
       <c r="F8">
-        <v>1.048940452160955</v>
+        <v>1.046959994551058</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053307178825257</v>
+        <v>1.052272260619452</v>
       </c>
       <c r="J8">
-        <v>1.048815054341842</v>
+        <v>1.046424211249006</v>
       </c>
       <c r="K8">
-        <v>1.053196816326619</v>
+        <v>1.050532419341143</v>
       </c>
       <c r="L8">
-        <v>1.050186231029687</v>
+        <v>1.048201474440029</v>
       </c>
       <c r="M8">
-        <v>1.059495920120468</v>
+        <v>1.057539325937815</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.055659264485175</v>
+        <v>1.054110781486407</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.048707562595148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046834595327883</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025083849694284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015610025307821</v>
+        <v>1.013904263481371</v>
       </c>
       <c r="D9">
-        <v>1.034246792864408</v>
+        <v>1.032356097220615</v>
       </c>
       <c r="E9">
-        <v>1.029794000074317</v>
+        <v>1.028464480943062</v>
       </c>
       <c r="F9">
-        <v>1.040308161914602</v>
+        <v>1.038954190810967</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050528414107415</v>
+        <v>1.049883404734028</v>
       </c>
       <c r="J9">
-        <v>1.040623344756624</v>
+        <v>1.038975402950428</v>
       </c>
       <c r="K9">
-        <v>1.046807643544612</v>
+        <v>1.044945159183897</v>
       </c>
       <c r="L9">
-        <v>1.04242150182795</v>
+        <v>1.041112025938002</v>
       </c>
       <c r="M9">
-        <v>1.052779447895587</v>
+        <v>1.051445368379578</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.050343717150162</v>
+        <v>1.049287896078</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.044186940805067</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042880699003025</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023746745012433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00706024236604</v>
+        <v>1.005886104268384</v>
       </c>
       <c r="D10">
-        <v>1.028553474985843</v>
+        <v>1.027226276463421</v>
       </c>
       <c r="E10">
-        <v>1.023145533833335</v>
+        <v>1.022293771872862</v>
       </c>
       <c r="F10">
-        <v>1.034441743678882</v>
+        <v>1.033527470986127</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048593059527334</v>
+        <v>1.04821793956779</v>
       </c>
       <c r="J10">
-        <v>1.034996514802986</v>
+        <v>1.033868118600369</v>
       </c>
       <c r="K10">
-        <v>1.04242564033398</v>
+        <v>1.041120757227487</v>
       </c>
       <c r="L10">
-        <v>1.037109096178308</v>
+        <v>1.036271843278675</v>
       </c>
       <c r="M10">
-        <v>1.0482157929734</v>
+        <v>1.047316660389715</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.046782855172322</v>
+        <v>1.046071301323831</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041105295284361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040195003730242</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022829081690557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004256376764802</v>
+        <v>1.003177171948307</v>
       </c>
       <c r="D11">
-        <v>1.026914149841415</v>
+        <v>1.025697159009129</v>
       </c>
       <c r="E11">
-        <v>1.021227535488382</v>
+        <v>1.020448085794052</v>
       </c>
       <c r="F11">
-        <v>1.032987640928579</v>
+        <v>1.032150238204941</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048223896265597</v>
+        <v>1.047881935887469</v>
       </c>
       <c r="J11">
-        <v>1.033453151284185</v>
+        <v>1.032418371577652</v>
       </c>
       <c r="K11">
-        <v>1.041345747738762</v>
+        <v>1.040150207618504</v>
       </c>
       <c r="L11">
-        <v>1.035759935394681</v>
+        <v>1.034994416074622</v>
       </c>
       <c r="M11">
-        <v>1.047313164978539</v>
+        <v>1.046490291508585</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.046500740822118</v>
+        <v>1.045849858155069</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040374374486956</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039544620588726</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02268120399568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003586234701133</v>
+        <v>1.002482862296398</v>
       </c>
       <c r="D12">
-        <v>1.026636767174046</v>
+        <v>1.025402614381514</v>
       </c>
       <c r="E12">
-        <v>1.020902194045172</v>
+        <v>1.020090790966433</v>
       </c>
       <c r="F12">
-        <v>1.032875521654725</v>
+        <v>1.032017128043835</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048277108389974</v>
+        <v>1.047911357793621</v>
       </c>
       <c r="J12">
-        <v>1.033239590321194</v>
+        <v>1.032182513377295</v>
       </c>
       <c r="K12">
-        <v>1.041270843032632</v>
+        <v>1.040058802676965</v>
       </c>
       <c r="L12">
-        <v>1.035639606028954</v>
+        <v>1.034842946393703</v>
       </c>
       <c r="M12">
-        <v>1.047398865549208</v>
+        <v>1.046555604613774</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.046892194054789</v>
+        <v>1.046225407297044</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040321415152176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039479996412514</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022725414169776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004547125854739</v>
+        <v>1.003323464781463</v>
       </c>
       <c r="D13">
-        <v>1.027420208235395</v>
+        <v>1.026067034007602</v>
       </c>
       <c r="E13">
-        <v>1.021810945746398</v>
+        <v>1.020882753957992</v>
       </c>
       <c r="F13">
-        <v>1.033821731442572</v>
+        <v>1.032863491069964</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048679843927405</v>
+        <v>1.04824342330568</v>
       </c>
       <c r="J13">
-        <v>1.034068360109971</v>
+        <v>1.032895723428226</v>
       </c>
       <c r="K13">
-        <v>1.041997946728942</v>
+        <v>1.040668892374489</v>
       </c>
       <c r="L13">
-        <v>1.036489208850773</v>
+        <v>1.035577789874357</v>
       </c>
       <c r="M13">
-        <v>1.048286473780587</v>
+        <v>1.047345032224689</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.047868571686517</v>
+        <v>1.047124335479323</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040833020388241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039908618743124</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022932178138584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005958565192452</v>
+        <v>1.004608258624268</v>
       </c>
       <c r="D14">
-        <v>1.028450109301247</v>
+        <v>1.026968308873863</v>
       </c>
       <c r="E14">
-        <v>1.023005886059475</v>
+        <v>1.021958545685834</v>
       </c>
       <c r="F14">
-        <v>1.034963606563395</v>
+        <v>1.033900584385413</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049120083687071</v>
+        <v>1.048613474829341</v>
       </c>
       <c r="J14">
-        <v>1.035120847783973</v>
+        <v>1.03382595936632</v>
       </c>
       <c r="K14">
-        <v>1.042871020800246</v>
+        <v>1.041415280149993</v>
       </c>
       <c r="L14">
-        <v>1.037523024073156</v>
+        <v>1.036494348082666</v>
       </c>
       <c r="M14">
-        <v>1.049271112646338</v>
+        <v>1.048226472329198</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048819044033483</v>
+        <v>1.047993336269291</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041451716827418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040437874716538</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023150974645327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006666396596154</v>
+        <v>1.005263666996911</v>
       </c>
       <c r="D15">
-        <v>1.028942206875889</v>
+        <v>1.027406134853592</v>
       </c>
       <c r="E15">
-        <v>1.023576691947418</v>
+        <v>1.022481190141635</v>
       </c>
       <c r="F15">
-        <v>1.035486581699147</v>
+        <v>1.034380282433833</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049309233001987</v>
+        <v>1.048774830812399</v>
       </c>
       <c r="J15">
-        <v>1.035615024056284</v>
+        <v>1.034269324753465</v>
       </c>
       <c r="K15">
-        <v>1.043269189188778</v>
+        <v>1.041759916023826</v>
       </c>
       <c r="L15">
-        <v>1.037997737053193</v>
+        <v>1.036921597892301</v>
       </c>
       <c r="M15">
-        <v>1.049700539899789</v>
+        <v>1.048613217044272</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.049195761733889</v>
+        <v>1.048336338997995</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.04173905184404</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040687930345094</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023243142996777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01011402592386</v>
+        <v>1.008508694260698</v>
       </c>
       <c r="D16">
-        <v>1.031211586537049</v>
+        <v>1.029459372096681</v>
       </c>
       <c r="E16">
-        <v>1.026226156078656</v>
+        <v>1.024951273247096</v>
       </c>
       <c r="F16">
-        <v>1.037814965916158</v>
+        <v>1.036541890377984</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.05006882736542</v>
+        <v>1.049434428125489</v>
       </c>
       <c r="J16">
-        <v>1.037856512073503</v>
+        <v>1.036313026919408</v>
       </c>
       <c r="K16">
-        <v>1.045004188621164</v>
+        <v>1.043281170508912</v>
       </c>
       <c r="L16">
-        <v>1.040102165579672</v>
+        <v>1.03884877990867</v>
       </c>
       <c r="M16">
-        <v>1.051498677712734</v>
+        <v>1.050246456481896</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.050578571862577</v>
+        <v>1.049588784456031</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042968869063387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041766917373754</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023600075527837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012018744012132</v>
+        <v>1.010324525188548</v>
       </c>
       <c r="D17">
-        <v>1.032413161108376</v>
+        <v>1.030562669315291</v>
       </c>
       <c r="E17">
-        <v>1.027632752126479</v>
+        <v>1.026282635032175</v>
       </c>
       <c r="F17">
-        <v>1.038999326230885</v>
+        <v>1.037653219360637</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050418122143135</v>
+        <v>1.049743651096695</v>
       </c>
       <c r="J17">
-        <v>1.039022767700781</v>
+        <v>1.03739164824964</v>
       </c>
       <c r="K17">
-        <v>1.045875775512517</v>
+        <v>1.044055235880797</v>
       </c>
       <c r="L17">
-        <v>1.041173026028615</v>
+        <v>1.039845010538142</v>
       </c>
       <c r="M17">
-        <v>1.052356445636364</v>
+        <v>1.051031760709477</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.0511285413384</v>
+        <v>1.050081373461802</v>
       </c>
       <c r="Q17">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04358766117631</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042317004399158</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023758190609853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012753207294747</v>
+        <v>1.011061704676328</v>
       </c>
       <c r="D18">
-        <v>1.032779695405725</v>
+        <v>1.03092566385179</v>
       </c>
       <c r="E18">
-        <v>1.028069413942689</v>
+        <v>1.026729051099778</v>
       </c>
       <c r="F18">
-        <v>1.039267027680171</v>
+        <v>1.037923717531966</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050431481953475</v>
+        <v>1.049766639276231</v>
       </c>
       <c r="J18">
-        <v>1.039342923301822</v>
+        <v>1.037713230619189</v>
       </c>
       <c r="K18">
-        <v>1.046055620366009</v>
+        <v>1.044231109645401</v>
       </c>
       <c r="L18">
-        <v>1.041420605692505</v>
+        <v>1.040101822824199</v>
       </c>
       <c r="M18">
-        <v>1.052440718267029</v>
+        <v>1.051118443233095</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.05095957421009</v>
+        <v>1.049914096885531</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043703292188217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042428687235497</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023750207195522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012480052770658</v>
+        <v>1.010866357596862</v>
       </c>
       <c r="D19">
-        <v>1.032442241239128</v>
+        <v>1.030663040173271</v>
       </c>
       <c r="E19">
-        <v>1.027675935697728</v>
+        <v>1.026414452287953</v>
       </c>
       <c r="F19">
-        <v>1.038746179621991</v>
+        <v>1.037467807512086</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.05017282292318</v>
+        <v>1.049557726045488</v>
       </c>
       <c r="J19">
-        <v>1.038947808331527</v>
+        <v>1.037392774297432</v>
       </c>
       <c r="K19">
-        <v>1.045661858080254</v>
+        <v>1.043910856643028</v>
       </c>
       <c r="L19">
-        <v>1.04097137811824</v>
+        <v>1.039730114394014</v>
       </c>
       <c r="M19">
-        <v>1.051866875379034</v>
+        <v>1.050608439171601</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.050183571289822</v>
+        <v>1.049188250148166</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043431229220741</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.042209226297893</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023610344146547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009345607988743</v>
+        <v>1.008024754862811</v>
       </c>
       <c r="D20">
-        <v>1.030095222707202</v>
+        <v>1.028613974034124</v>
       </c>
       <c r="E20">
-        <v>1.024931389296385</v>
+        <v>1.023947235990976</v>
       </c>
       <c r="F20">
-        <v>1.036018264046846</v>
+        <v>1.034982859571112</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049135482886358</v>
+        <v>1.048685301007451</v>
       </c>
       <c r="J20">
-        <v>1.036520965600975</v>
+        <v>1.035249802394028</v>
       </c>
       <c r="K20">
-        <v>1.043628750507103</v>
+        <v>1.042171673609792</v>
       </c>
       <c r="L20">
-        <v>1.038549572740288</v>
+        <v>1.037581678277099</v>
       </c>
       <c r="M20">
-        <v>1.049456022672814</v>
+        <v>1.048437258132809</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.047753912057963</v>
+        <v>1.04694767494341</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041997668669963</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.04098387828628</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023090138107595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002703906087487</v>
+        <v>1.001820288407246</v>
       </c>
       <c r="D21">
-        <v>1.025637921332878</v>
+        <v>1.024614427593913</v>
       </c>
       <c r="E21">
-        <v>1.019731332045549</v>
+        <v>1.019141423292716</v>
       </c>
       <c r="F21">
-        <v>1.031386277924571</v>
+        <v>1.030711104239957</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047561469253683</v>
+        <v>1.047333993293703</v>
       </c>
       <c r="J21">
-        <v>1.032089011488822</v>
+        <v>1.031242100764329</v>
       </c>
       <c r="K21">
-        <v>1.040149327366847</v>
+        <v>1.039144010269448</v>
       </c>
       <c r="L21">
-        <v>1.034348288436894</v>
+        <v>1.03376900866298</v>
       </c>
       <c r="M21">
-        <v>1.045796464754452</v>
+        <v>1.045133103970323</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.044817207749952</v>
+        <v>1.044292205097951</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039540847974623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038846810917624</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022342032873872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9984570892441983</v>
+        <v>0.9978556297303608</v>
       </c>
       <c r="D22">
-        <v>1.022798920004653</v>
+        <v>1.02206859709357</v>
       </c>
       <c r="E22">
-        <v>1.016426257002013</v>
+        <v>1.016089617171337</v>
       </c>
       <c r="F22">
-        <v>1.028459432384822</v>
+        <v>1.028015605058971</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046553001353484</v>
+        <v>1.046467488307048</v>
       </c>
       <c r="J22">
-        <v>1.029265151783782</v>
+        <v>1.028690230634516</v>
       </c>
       <c r="K22">
-        <v>1.03793186337015</v>
+        <v>1.037215191555419</v>
       </c>
       <c r="L22">
-        <v>1.031679181941526</v>
+        <v>1.031348934939555</v>
       </c>
       <c r="M22">
-        <v>1.043487426868378</v>
+        <v>1.043051773920565</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.042989767653993</v>
+        <v>1.042644978659308</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037959609454329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037468362902541</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021864503644356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.000696127037802</v>
+        <v>0.9999462534737538</v>
       </c>
       <c r="D23">
-        <v>1.024287555745816</v>
+        <v>1.023403024660795</v>
       </c>
       <c r="E23">
-        <v>1.018164125301802</v>
+        <v>1.017694607390783</v>
       </c>
       <c r="F23">
-        <v>1.029998454117428</v>
+        <v>1.029433093572898</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047078333228557</v>
+        <v>1.046918627817122</v>
       </c>
       <c r="J23">
-        <v>1.030747363130277</v>
+        <v>1.03002954332951</v>
       </c>
       <c r="K23">
-        <v>1.039090713663695</v>
+        <v>1.038222277368549</v>
       </c>
       <c r="L23">
-        <v>1.033079451466406</v>
+        <v>1.032618606759079</v>
       </c>
       <c r="M23">
-        <v>1.044698561706859</v>
+        <v>1.044143336568121</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.043948295747599</v>
+        <v>1.043508874233762</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038769373478192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038169872901754</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022111420027922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009326391468812</v>
+        <v>1.008015499030886</v>
       </c>
       <c r="D24">
-        <v>1.030050781985791</v>
+        <v>1.028578743308374</v>
       </c>
       <c r="E24">
-        <v>1.024887028997328</v>
+        <v>1.023913289559219</v>
       </c>
       <c r="F24">
-        <v>1.035955772263588</v>
+        <v>1.034928724509657</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049094953272385</v>
+        <v>1.048651564376695</v>
       </c>
       <c r="J24">
-        <v>1.036470096703282</v>
+        <v>1.035208452327471</v>
       </c>
       <c r="K24">
-        <v>1.043569952894852</v>
+        <v>1.042121907374976</v>
       </c>
       <c r="L24">
-        <v>1.038490755341195</v>
+        <v>1.037533083686239</v>
       </c>
       <c r="M24">
-        <v>1.049379575137897</v>
+        <v>1.048369014335902</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.047652977053127</v>
+        <v>1.046853193336265</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041928914845862</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040918829821978</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023066205684118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018917618332957</v>
+        <v>1.017006129112711</v>
       </c>
       <c r="D25">
-        <v>1.036477992379848</v>
+        <v>1.034368224860361</v>
       </c>
       <c r="E25">
-        <v>1.03239172902554</v>
+        <v>1.030875926366106</v>
       </c>
       <c r="F25">
-        <v>1.042613247189223</v>
+        <v>1.041088245676715</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051292166760508</v>
+        <v>1.050540597030222</v>
       </c>
       <c r="J25">
-        <v>1.042824681105109</v>
+        <v>1.040974417155736</v>
       </c>
       <c r="K25">
-        <v>1.048535246931188</v>
+        <v>1.046455456842818</v>
       </c>
       <c r="L25">
-        <v>1.044507185502082</v>
+        <v>1.043013121468724</v>
       </c>
       <c r="M25">
-        <v>1.054584196939288</v>
+        <v>1.053080527700302</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.051772034488366</v>
+        <v>1.0505819983941</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04543672688425</v>
+        <v>1.04397964990396</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024115030902889</v>
       </c>
     </row>
   </sheetData>
